--- a/ha-resource/01_design/01_dashboard/設計書_1.3.健康情報一括登録機能.xlsx
+++ b/ha-resource/01_design/01_dashboard/設計書_1.3.健康情報一括登録機能.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\01_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CCF9B6-37C5-4402-ADD5-5C0B7751E52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480BF4A2-4044-4E5C-861C-276A6C497894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="2.2.健康情報一括登録確認画面" sheetId="4" r:id="rId4"/>
     <sheet name="2.3.健康情報一括登録完了画面" sheetId="5" r:id="rId5"/>
     <sheet name="3.1.ファイルIF" sheetId="6" r:id="rId6"/>
-    <sheet name="データ入力例" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="データ入力例" sheetId="7" r:id="rId7"/>
     <sheet name="白紙" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.健康情報一括登録画面'!$A$1:$BK$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'2.2.健康情報一括登録確認画面'!$A$1:$BK$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2.2.健康情報一括登録確認画面'!$A$1:$BK$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2.3.健康情報一括登録完了画面'!$A$1:$BK$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1.ファイルIF'!$A$1:$BF$19</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="141">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -60,19 +60,22 @@
     <t>1.1.健康情報一括登録</t>
   </si>
   <si>
-    <t>指定されたフォーマットのファイルを読み込み、健康情報を登録する機能を提供</t>
-  </si>
-  <si>
     <t>バージョン</t>
   </si>
   <si>
     <t>内容</t>
   </si>
   <si>
+    <t>指定されたフォーマットのファイルを読み込み、健康情報を登録する機能を提供</t>
+  </si>
+  <si>
     <t>1.00</t>
   </si>
   <si>
     <t>新規作成</t>
+  </si>
+  <si>
+    <t>1.01</t>
   </si>
   <si>
     <t>2.1.1.画面レイアウト</t>
@@ -111,19 +114,19 @@
     <t>ファイルフォーマットは「3.1.ファイルIF」の「3.1.1. 健康情報登録CSV」参照</t>
   </si>
   <si>
-    <t>2.3.健康情報一括登録完了画面</t>
-  </si>
-  <si>
-    <t>2.2.健康情報一括登録確認画面</t>
-  </si>
-  <si>
     <t>確認</t>
   </si>
   <si>
     <t>ボタン</t>
   </si>
   <si>
+    <t>2.2.健康情報一括登録確認画面</t>
+  </si>
+  <si>
     <t>2.1.2.処理詳細</t>
+  </si>
+  <si>
+    <t>2.3.健康情報一括登録完了画面</t>
   </si>
   <si>
     <t>アクション</t>
@@ -138,9 +141,6 @@
     <t>例外概要</t>
   </si>
   <si>
-    <t>2.3.1.画面レイアウト</t>
-  </si>
-  <si>
     <t>例外詳細</t>
   </si>
   <si>
@@ -150,16 +150,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>完了メッセージ</t>
+    <t>2.3.1.画面レイアウト</t>
   </si>
   <si>
     <t>確認ボタン押下</t>
-  </si>
-  <si>
-    <t>2.2.1.画面レイアウト</t>
-  </si>
-  <si>
-    <t>表示</t>
   </si>
   <si>
     <t>入力チェック</t>
@@ -171,13 +165,13 @@
     <t>健康情報ファイルが未入力の場合、"健康情報ファイルが未入力です" 表示</t>
   </si>
   <si>
-    <t>2.3.2.処理詳細</t>
-  </si>
-  <si>
     <t>セッションからユーザIDを取得</t>
   </si>
   <si>
-    <t>登録件数</t>
+    <t>完了メッセージ</t>
+  </si>
+  <si>
+    <t>表示</t>
   </si>
   <si>
     <t>ファイルフォーマットをチェック</t>
@@ -186,26 +180,13 @@
     <t>2.1.4.1.健康情報ファイルフォーマットチェック 参照</t>
   </si>
   <si>
-    <t>健康情報CSVレコード数</t>
-  </si>
-  <si>
     <t>ファイルフォーマットエラー</t>
   </si>
   <si>
-    <t>エラーコード：DW0027
-エラーメッセージ：n行目のファイルフォーマットが不正です</t>
-  </si>
-  <si>
-    <t>登録情報 - 行数</t>
+    <t>2.3.2.処理詳細</t>
   </si>
   <si>
     <t>セッションに健康情報CSVファイル情報を設定</t>
-  </si>
-  <si>
-    <t>健康情報CSV.ユーザID</t>
-  </si>
-  <si>
-    <t>登録情報 - 身長</t>
   </si>
   <si>
     <t>健康情報一括登録確認画面に遷移</t>
@@ -214,10 +195,43 @@
     <t>2.2.健康情報一括登録確認画面 参照</t>
   </si>
   <si>
-    <t>健康情報CSV.身長</t>
+    <t>2.2.1.画面レイアウト</t>
+  </si>
+  <si>
+    <t>2.1.3.DB処理</t>
   </si>
   <si>
     <t>2.3.3.DB処理</t>
+  </si>
+  <si>
+    <t>登録件数</t>
+  </si>
+  <si>
+    <t>2.1.4.備考</t>
+  </si>
+  <si>
+    <t>健康情報CSVレコード数</t>
+  </si>
+  <si>
+    <t>2.1.4.1.健康情報ファイルフォーマットチェック</t>
+  </si>
+  <si>
+    <t>2.3.4.備考</t>
+  </si>
+  <si>
+    <t>登録情報 - 行数</t>
+  </si>
+  <si>
+    <t>健康情報CSV.ユーザID</t>
+  </si>
+  <si>
+    <t>必須チェック項目</t>
+  </si>
+  <si>
+    <t>登録情報 - 身長</t>
+  </si>
+  <si>
+    <t>健康情報CSV.身長</t>
   </si>
   <si>
     <t>登録情報 - 体重</t>
@@ -226,110 +240,40 @@
     <t>健康情報CSV.体重</t>
   </si>
   <si>
-    <t>確定</t>
+    <t>ユーザID、身長、体重</t>
   </si>
   <si>
-    <t>2.1.3.DB処理</t>
-  </si>
-  <si>
-    <t>2.3.4.備考</t>
+    <t>確定</t>
   </si>
   <si>
     <t>戻る</t>
   </si>
   <si>
-    <t>2.1.4.備考</t>
+    <t>型チェック項目</t>
+  </si>
+  <si>
+    <t>3.1. ファイルIF</t>
+  </si>
+  <si>
+    <t>身長、体重</t>
   </si>
   <si>
     <t>2.2.2.処理詳細</t>
   </si>
   <si>
-    <t>2.1.4.1.健康情報ファイルフォーマットチェック</t>
-  </si>
-  <si>
-    <t>必須チェック項目</t>
-  </si>
-  <si>
-    <t>3.1. ファイルIF</t>
-  </si>
-  <si>
-    <t>確定ボタン押下</t>
-  </si>
-  <si>
-    <t>セッションから健康情報CSVリストを取得</t>
-  </si>
-  <si>
-    <t>健康情報CSV取得エラー</t>
-  </si>
-  <si>
     <t>3.1.1. 健康情報登録CSV</t>
-  </si>
-  <si>
-    <t>エラーメッセージ：リクエスト情報が不正です
-エラーコード：DW0027</t>
-  </si>
-  <si>
-    <t>ユーザID、身長、体重</t>
   </si>
   <si>
     <t>3.1.1.1 概要</t>
   </si>
   <si>
-    <t>以下、健康情報CSVファイルの1レコード毎に行う</t>
-  </si>
-  <si>
     <t>ファイル名</t>
   </si>
   <si>
-    <t>型チェック項目</t>
+    <t>半角数字</t>
   </si>
   <si>
     <t>文字コード</t>
-  </si>
-  <si>
-    <t>身長、体重</t>
-  </si>
-  <si>
-    <t>UTF-8</t>
-  </si>
-  <si>
-    <t>アカウント情報を検索</t>
-  </si>
-  <si>
-    <t>2.2.3.1.アカウント情報検索 参照</t>
-  </si>
-  <si>
-    <t>囲い文字</t>
-  </si>
-  <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t>ヘッダ</t>
-  </si>
-  <si>
-    <t>API情報を設定</t>
-  </si>
-  <si>
-    <t>2.2.4.1.API設定情報 参照</t>
-  </si>
-  <si>
-    <t>フッタ</t>
-  </si>
-  <si>
-    <t>健康情報登録APIを呼び出す</t>
-  </si>
-  <si>
-    <t>設計書_2.0.健康情報API 参照</t>
-  </si>
-  <si>
-    <t>3.1.1.2 ファイル内容</t>
-  </si>
-  <si>
-    <t>ボディ部</t>
-  </si>
-  <si>
-    <t>半角数字</t>
   </si>
   <si>
     <t>半角数字とピリオド</t>
@@ -338,10 +282,19 @@
     <t>△：任意</t>
   </si>
   <si>
+    <t>確定ボタン押下</t>
+  </si>
+  <si>
+    <t>UTF-8</t>
+  </si>
+  <si>
     <t>半角英字</t>
   </si>
   <si>
     <t>▲：条件付き必須</t>
+  </si>
+  <si>
+    <t>セッションから健康情報CSVリストを取得</t>
   </si>
   <si>
     <t>リンク</t>
@@ -350,22 +303,22 @@
     <t>半角記号</t>
   </si>
   <si>
-    <t>設定値</t>
-  </si>
-  <si>
-    <t>セッションから健康情報CSVファイル情報を削除</t>
-  </si>
-  <si>
     <t>半角英数字</t>
   </si>
   <si>
-    <t>備考</t>
+    <t>健康情報CSV取得エラー</t>
   </si>
   <si>
     <t>半角英数記号</t>
   </si>
   <si>
+    <t>囲い文字</t>
+  </si>
+  <si>
     <t>YYYY</t>
+  </si>
+  <si>
+    <t>なし</t>
   </si>
   <si>
     <t>MM</t>
@@ -380,34 +333,76 @@
     <t>YYYYMMDD</t>
   </si>
   <si>
+    <t>YYYYMMDDHHMISS</t>
+  </si>
+  <si>
+    <t>ヘッダ</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>フッタ</t>
+  </si>
+  <si>
+    <t>以下、健康情報CSVファイルの1レコード毎に行う</t>
+  </si>
+  <si>
+    <t>3.1.1.2 ファイル内容</t>
+  </si>
+  <si>
+    <t>ボディ部</t>
+  </si>
+  <si>
+    <t>アカウント情報を検索</t>
+  </si>
+  <si>
+    <t>2.2.3.1.アカウント情報検索 参照</t>
+  </si>
+  <si>
+    <t>API情報を設定</t>
+  </si>
+  <si>
+    <t>2.2.4.1.API設定情報 参照</t>
+  </si>
+  <si>
+    <t>設定値</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>健康情報登録APIを呼び出す</t>
+  </si>
+  <si>
+    <t>設計書_2.0.健康情報API 参照</t>
+  </si>
+  <si>
     <t>ユーザID</t>
   </si>
   <si>
-    <t>YYYYMMDDHHMISS</t>
+    <t>半角英数</t>
+  </si>
+  <si>
+    <t>身長</t>
+  </si>
+  <si>
+    <t>セッションから健康情報CSVファイル情報を削除</t>
+  </si>
+  <si>
+    <t>体重</t>
   </si>
   <si>
     <t>戻るボタン押下</t>
   </si>
   <si>
-    <t>半角英数</t>
-  </si>
-  <si>
-    <t>HH</t>
-  </si>
-  <si>
     <t>健康情報一括登録画面に遷移</t>
   </si>
   <si>
-    <t>MI</t>
-  </si>
-  <si>
     <t>2.1.健康情報一括登録画面 参照</t>
-  </si>
-  <si>
-    <t>身長</t>
-  </si>
-  <si>
-    <t>体重</t>
   </si>
   <si>
     <t>2.2.3.DB処理</t>
@@ -463,6 +458,22 @@
   <si>
     <t>}</t>
   </si>
+  <si>
+    <t>エラーコード：DW0027
+エラーメッセージ：n行目のファイルフォーマットが不正です</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エラーメッセージ：リクエスト情報が不正です
+エラーコード：DW0027</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>画面キャプチャを更新
+&gt;2.1.健康情報一括登録画面
+&gt;2.2.健康情報一括登録確認画面</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
@@ -471,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -503,12 +514,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Meiryo"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -720,8 +725,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -743,30 +752,26 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -843,9 +848,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -855,8 +857,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -876,13 +878,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -898,20 +896,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -922,53 +941,36 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -982,7 +984,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -992,9 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1003,6 +1002,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,14 +1028,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7486650" cy="1762125"/>
+    <xdr:ext cx="7600950" cy="1676400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image2.png" title="画像">
+        <xdr:cNvPr id="2" name="image1.png" title="画像">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
@@ -1067,12 +1069,12 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10210800" cy="2943225"/>
+    <xdr:ext cx="8124825" cy="3495675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="画像">
+        <xdr:cNvPr id="2" name="image2.png" title="画像">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
@@ -1104,9 +1106,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7829550" cy="1400175"/>
     <xdr:pic>
@@ -1127,6 +1129,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="285750"/>
+          <a:ext cx="7829550" cy="1400175"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1341,9 +1347,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:Z16"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1415,678 +1419,684 @@
       <c r="B3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="73"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="77">
+      <c r="B4" s="75">
         <v>43778</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="78" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="73" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="75"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="73"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="47.25" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="75"/>
+      <c r="B5" s="75">
+        <v>43869</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="73"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="75"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="73"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="75"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="73"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="75"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="73"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="75"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="73"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="75"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="73"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="75"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="73"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="75"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="73"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="75"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="73"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="75"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="73"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="75"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="73"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="75"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="73"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="75"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="73"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="75"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="73"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="75"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="73"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="75"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="73"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="75"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="73"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="75"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="73"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="75"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="73"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="75"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="73"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="75"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="73"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -2149,77 +2159,77 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J13:Z13"/>
     <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="J7:Z7"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="J9:Z9"/>
     <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="J25:Z25"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F8:I8"/>
     <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B17:E17"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2400,7 +2410,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3827,9 +3837,9 @@
       <c r="AW31" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3840,9 +3850,7 @@
   </sheetPr>
   <dimension ref="A1:BK39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AZ14" sqref="AZ14"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4633,7 +4641,7 @@
     </row>
     <row r="13" spans="1:63">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -4766,10 +4774,10 @@
     <row r="15" spans="1:63" outlineLevel="1">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -4780,7 +4788,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="13"/>
       <c r="L15" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M15" s="14"/>
       <c r="N15" s="12"/>
@@ -4788,7 +4796,7 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
@@ -4796,7 +4804,7 @@
       <c r="V15" s="12"/>
       <c r="W15" s="13"/>
       <c r="X15" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
@@ -4804,12 +4812,12 @@
       <c r="AB15" s="15"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE15" s="15"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
@@ -4842,14 +4850,14 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
     </row>
-    <row r="16" spans="1:63" outlineLevel="1">
+    <row r="16" spans="1:63" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A16" s="9"/>
       <c r="B16" s="18">
         <f t="shared" ref="B16:B17" si="0">ROW()-15</f>
         <v>1</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4859,43 +4867,43 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="84" t="s">
-        <v>19</v>
+      <c r="L16" s="77" t="s">
+        <v>20</v>
       </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="75"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="73"/>
       <c r="X16" s="19"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="22"/>
       <c r="AB16" s="22"/>
       <c r="AC16" s="23"/>
-      <c r="AD16" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="79" t="s">
+      <c r="AD16" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="80"/>
-      <c r="AK16" s="80"/>
-      <c r="AL16" s="80"/>
-      <c r="AM16" s="80"/>
-      <c r="AN16" s="80"/>
-      <c r="AO16" s="80"/>
-      <c r="AP16" s="81"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="79"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="79"/>
+      <c r="AP16" s="80"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
@@ -4925,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -4935,39 +4943,39 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="84" t="s">
-        <v>25</v>
+      <c r="L17" s="77" t="s">
+        <v>24</v>
       </c>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="75"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="73"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="22"/>
       <c r="AB17" s="22"/>
       <c r="AC17" s="23"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="80"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="80"/>
-      <c r="AI17" s="80"/>
-      <c r="AJ17" s="80"/>
-      <c r="AK17" s="80"/>
-      <c r="AL17" s="80"/>
-      <c r="AM17" s="80"/>
-      <c r="AN17" s="80"/>
-      <c r="AO17" s="80"/>
-      <c r="AP17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="79"/>
+      <c r="AM17" s="79"/>
+      <c r="AN17" s="79"/>
+      <c r="AO17" s="79"/>
+      <c r="AP17" s="80"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
@@ -5190,10 +5198,10 @@
     <row r="21" spans="1:63" outlineLevel="1">
       <c r="A21" s="24"/>
       <c r="B21" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="12"/>
@@ -5202,7 +5210,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
       <c r="J21" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="12"/>
@@ -5212,7 +5220,7 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S21" s="14"/>
       <c r="T21" s="12"/>
@@ -5230,7 +5238,7 @@
       <c r="AF21" s="12"/>
       <c r="AG21" s="12"/>
       <c r="AH21" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="12"/>
@@ -5270,23 +5278,23 @@
         <f t="shared" ref="B22:B27" si="1">ROW()-21</f>
         <v>1</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="19" t="s">
@@ -5307,7 +5315,7 @@
       <c r="AE22" s="20"/>
       <c r="AF22" s="20"/>
       <c r="AG22" s="20"/>
-      <c r="AH22" s="29" t="s">
+      <c r="AH22" s="28" t="s">
         <v>34</v>
       </c>
       <c r="AI22" s="20"/>
@@ -5317,7 +5325,7 @@
       <c r="AM22" s="20"/>
       <c r="AN22" s="20"/>
       <c r="AO22" s="21"/>
-      <c r="AP22" s="29" t="s">
+      <c r="AP22" s="28" t="s">
         <v>34</v>
       </c>
       <c r="AQ22" s="20"/>
@@ -5348,17 +5356,17 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -5385,8 +5393,8 @@
       <c r="AE23" s="20"/>
       <c r="AF23" s="20"/>
       <c r="AG23" s="20"/>
-      <c r="AH23" s="29" t="s">
-        <v>40</v>
+      <c r="AH23" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="AI23" s="20"/>
       <c r="AJ23" s="20"/>
@@ -5395,24 +5403,24 @@
       <c r="AM23" s="20"/>
       <c r="AN23" s="20"/>
       <c r="AO23" s="21"/>
-      <c r="AP23" s="83" t="s">
-        <v>41</v>
+      <c r="AP23" s="82" t="s">
+        <v>39</v>
       </c>
-      <c r="AQ23" s="80"/>
-      <c r="AR23" s="80"/>
-      <c r="AS23" s="80"/>
-      <c r="AT23" s="80"/>
-      <c r="AU23" s="80"/>
-      <c r="AV23" s="80"/>
-      <c r="AW23" s="80"/>
-      <c r="AX23" s="80"/>
-      <c r="AY23" s="80"/>
-      <c r="AZ23" s="80"/>
-      <c r="BA23" s="80"/>
-      <c r="BB23" s="80"/>
-      <c r="BC23" s="80"/>
-      <c r="BD23" s="80"/>
-      <c r="BE23" s="81"/>
+      <c r="AQ23" s="79"/>
+      <c r="AR23" s="79"/>
+      <c r="AS23" s="79"/>
+      <c r="AT23" s="79"/>
+      <c r="AU23" s="79"/>
+      <c r="AV23" s="79"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="79"/>
+      <c r="BA23" s="79"/>
+      <c r="BB23" s="79"/>
+      <c r="BC23" s="79"/>
+      <c r="BD23" s="79"/>
+      <c r="BE23" s="80"/>
       <c r="BF23" s="3"/>
       <c r="BG23" s="3"/>
       <c r="BH23" s="3"/>
@@ -5420,21 +5428,21 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="3"/>
     </row>
-    <row r="24" spans="1:63" ht="16.5" outlineLevel="1">
+    <row r="24" spans="1:63" outlineLevel="1">
       <c r="A24" s="24"/>
       <c r="B24" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -5461,7 +5469,7 @@
       <c r="AE24" s="20"/>
       <c r="AF24" s="20"/>
       <c r="AG24" s="20"/>
-      <c r="AH24" s="29" t="s">
+      <c r="AH24" s="28" t="s">
         <v>34</v>
       </c>
       <c r="AI24" s="20"/>
@@ -5502,15 +5510,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -5520,7 +5528,7 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
@@ -5537,8 +5545,8 @@
       <c r="AE25" s="20"/>
       <c r="AF25" s="20"/>
       <c r="AG25" s="20"/>
-      <c r="AH25" s="29" t="s">
-        <v>48</v>
+      <c r="AH25" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="AI25" s="20"/>
       <c r="AJ25" s="20"/>
@@ -5547,24 +5555,24 @@
       <c r="AM25" s="20"/>
       <c r="AN25" s="20"/>
       <c r="AO25" s="21"/>
-      <c r="AP25" s="90" t="s">
-        <v>49</v>
+      <c r="AP25" s="88" t="s">
+        <v>138</v>
       </c>
-      <c r="AQ25" s="91"/>
-      <c r="AR25" s="91"/>
-      <c r="AS25" s="91"/>
-      <c r="AT25" s="91"/>
-      <c r="AU25" s="91"/>
-      <c r="AV25" s="91"/>
-      <c r="AW25" s="91"/>
-      <c r="AX25" s="91"/>
-      <c r="AY25" s="91"/>
-      <c r="AZ25" s="91"/>
-      <c r="BA25" s="91"/>
-      <c r="BB25" s="91"/>
-      <c r="BC25" s="91"/>
-      <c r="BD25" s="91"/>
-      <c r="BE25" s="92"/>
+      <c r="AQ25" s="89"/>
+      <c r="AR25" s="89"/>
+      <c r="AS25" s="89"/>
+      <c r="AT25" s="89"/>
+      <c r="AU25" s="89"/>
+      <c r="AV25" s="89"/>
+      <c r="AW25" s="89"/>
+      <c r="AX25" s="89"/>
+      <c r="AY25" s="89"/>
+      <c r="AZ25" s="89"/>
+      <c r="BA25" s="89"/>
+      <c r="BB25" s="89"/>
+      <c r="BC25" s="89"/>
+      <c r="BD25" s="89"/>
+      <c r="BE25" s="90"/>
       <c r="BF25" s="3"/>
       <c r="BG25" s="3"/>
       <c r="BH25" s="3"/>
@@ -5578,23 +5586,23 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="79" t="s">
-        <v>51</v>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="78" t="s">
+        <v>47</v>
       </c>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="81"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="80"/>
       <c r="R26" s="19"/>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
@@ -5611,7 +5619,7 @@
       <c r="AE26" s="20"/>
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
-      <c r="AH26" s="29" t="s">
+      <c r="AH26" s="28" t="s">
         <v>34</v>
       </c>
       <c r="AI26" s="20"/>
@@ -5660,7 +5668,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="21"/>
       <c r="J27" s="19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -5670,7 +5678,7 @@
       <c r="P27" s="20"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
@@ -5687,7 +5695,7 @@
       <c r="AE27" s="20"/>
       <c r="AF27" s="20"/>
       <c r="AG27" s="20"/>
-      <c r="AH27" s="29" t="s">
+      <c r="AH27" s="28" t="s">
         <v>34</v>
       </c>
       <c r="AI27" s="20"/>
@@ -5789,7 +5797,7 @@
     </row>
     <row r="29" spans="1:63">
       <c r="A29" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -5986,7 +5994,7 @@
     </row>
     <row r="32" spans="1:63">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6118,8 +6126,8 @@
     </row>
     <row r="34" spans="1:63" outlineLevel="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="35" t="s">
-        <v>66</v>
+      <c r="B34" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -6186,42 +6194,42 @@
     <row r="35" spans="1:63" outlineLevel="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="36" t="s">
-        <v>67</v>
+      <c r="C35" s="35" t="s">
+        <v>60</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="38"/>
-      <c r="AG35" s="38"/>
-      <c r="AH35" s="38"/>
-      <c r="AI35" s="38"/>
-      <c r="AJ35" s="42"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="37"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
@@ -6253,42 +6261,42 @@
     <row r="36" spans="1:63" outlineLevel="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44" t="s">
-        <v>74</v>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39" t="s">
+        <v>65</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="46"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="40"/>
+      <c r="AE36" s="40"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="40"/>
+      <c r="AH36" s="40"/>
+      <c r="AI36" s="40"/>
+      <c r="AJ36" s="41"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
@@ -6320,42 +6328,42 @@
     <row r="37" spans="1:63" outlineLevel="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="36" t="s">
-        <v>78</v>
+      <c r="C37" s="35" t="s">
+        <v>68</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="38"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="38"/>
-      <c r="AF37" s="38"/>
-      <c r="AG37" s="38"/>
-      <c r="AH37" s="38"/>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="42"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="37"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
@@ -6387,42 +6395,42 @@
     <row r="38" spans="1:63" outlineLevel="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44" t="s">
-        <v>80</v>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39" t="s">
+        <v>70</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="45"/>
-      <c r="AG38" s="45"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="46"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="40"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="40"/>
+      <c r="AI38" s="40"/>
+      <c r="AJ38" s="41"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
@@ -6518,9 +6526,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AP25:BE25"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
     <mergeCell ref="L16:Q16"/>
     <mergeCell ref="R16:W16"/>
     <mergeCell ref="J26:Q26"/>
@@ -6529,16 +6534,13 @@
     <mergeCell ref="AD17:AF17"/>
     <mergeCell ref="AD16:AF16"/>
     <mergeCell ref="AP23:BE23"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="AP25:BE25"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="4" manualBreakCount="4">
-    <brk id="12" max="16383" man="1"/>
-    <brk id="18" max="16383" man="1"/>
-    <brk id="28" max="16383" man="1"/>
-    <brk id="31" max="16383" man="1"/>
-  </rowBreaks>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -6572,11 +6574,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BK64"/>
+  <dimension ref="A1:BK67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -6585,7 +6585,7 @@
   <sheetData>
     <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7756,71 +7756,69 @@
       <c r="BK18" s="3"/>
     </row>
     <row r="19" spans="1:63">
-      <c r="A19" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="8"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="8"/>
-      <c r="AU19" s="8"/>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="8"/>
-      <c r="AX19" s="8"/>
-      <c r="AY19" s="8"/>
-      <c r="AZ19" s="8"/>
-      <c r="BA19" s="8"/>
-      <c r="BB19" s="8"/>
-      <c r="BC19" s="8"/>
-      <c r="BD19" s="8"/>
-      <c r="BE19" s="8"/>
-      <c r="BF19" s="8"/>
-      <c r="BG19" s="8"/>
-      <c r="BH19" s="8"/>
-      <c r="BI19" s="8"/>
-      <c r="BJ19" s="8"/>
-      <c r="BK19" s="8"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
     </row>
     <row r="20" spans="1:63">
       <c r="A20" s="3"/>
@@ -7887,63 +7885,49 @@
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
     </row>
-    <row r="21" spans="1:63" outlineLevel="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="16"/>
+    <row r="21" spans="1:63">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
@@ -7966,132 +7950,116 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
     </row>
-    <row r="22" spans="1:63" outlineLevel="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="18">
-        <f t="shared" ref="B22:B27" si="0">ROW()-21</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="80"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH22" s="80"/>
-      <c r="AI22" s="80"/>
-      <c r="AJ22" s="80"/>
-      <c r="AK22" s="80"/>
-      <c r="AL22" s="80"/>
-      <c r="AM22" s="80"/>
-      <c r="AN22" s="80"/>
-      <c r="AO22" s="80"/>
-      <c r="AP22" s="81"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-    </row>
-    <row r="23" spans="1:63" outlineLevel="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C23" s="19" t="s">
+    <row r="22" spans="1:63">
+      <c r="A22" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="80"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH23" s="80"/>
-      <c r="AI23" s="80"/>
-      <c r="AJ23" s="80"/>
-      <c r="AK23" s="80"/>
-      <c r="AL23" s="80"/>
-      <c r="AM23" s="80"/>
-      <c r="AN23" s="80"/>
-      <c r="AO23" s="80"/>
-      <c r="AP23" s="81"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="8"/>
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="8"/>
+      <c r="BI22" s="8"/>
+      <c r="BJ22" s="8"/>
+      <c r="BK22" s="8"/>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
@@ -8116,56 +8084,61 @@
     </row>
     <row r="24" spans="1:63" outlineLevel="1">
       <c r="A24" s="9"/>
-      <c r="B24" s="18">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B24" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>53</v>
+      <c r="C24" s="11" t="s">
+        <v>13</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="84" t="s">
-        <v>38</v>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="11" t="s">
+        <v>14</v>
       </c>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="75"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="80"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="82" t="s">
-        <v>56</v>
+      <c r="M24" s="14"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="AH24" s="80"/>
-      <c r="AI24" s="80"/>
-      <c r="AJ24" s="80"/>
-      <c r="AK24" s="80"/>
-      <c r="AL24" s="80"/>
-      <c r="AM24" s="80"/>
-      <c r="AN24" s="80"/>
-      <c r="AO24" s="80"/>
-      <c r="AP24" s="81"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="16"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
@@ -8191,11 +8164,11 @@
     <row r="25" spans="1:63" outlineLevel="1">
       <c r="A25" s="9"/>
       <c r="B25" s="18">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="B25:B30" si="0">ROW()-24</f>
+        <v>1</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -8205,41 +8178,41 @@
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="84" t="s">
-        <v>38</v>
+      <c r="L25" s="77" t="s">
+        <v>42</v>
       </c>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="75"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="73"/>
       <c r="X25" s="19"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
       <c r="AC25" s="23"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="80"/>
-      <c r="AF25" s="81"/>
-      <c r="AG25" s="82" t="s">
-        <v>59</v>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="80"/>
+      <c r="AG25" s="78" t="s">
+        <v>55</v>
       </c>
-      <c r="AH25" s="80"/>
-      <c r="AI25" s="80"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="80"/>
-      <c r="AL25" s="80"/>
-      <c r="AM25" s="80"/>
-      <c r="AN25" s="80"/>
-      <c r="AO25" s="80"/>
-      <c r="AP25" s="81"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="79"/>
+      <c r="AL25" s="79"/>
+      <c r="AM25" s="79"/>
+      <c r="AN25" s="79"/>
+      <c r="AO25" s="79"/>
+      <c r="AP25" s="80"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
@@ -8266,10 +8239,10 @@
       <c r="A26" s="9"/>
       <c r="B26" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -8279,39 +8252,41 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="84" t="s">
-        <v>25</v>
+      <c r="L26" s="77" t="s">
+        <v>42</v>
       </c>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="75"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="73"/>
       <c r="X26" s="19"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
       <c r="AC26" s="23"/>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="80"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="80"/>
-      <c r="AI26" s="80"/>
-      <c r="AJ26" s="80"/>
-      <c r="AK26" s="80"/>
-      <c r="AL26" s="80"/>
-      <c r="AM26" s="80"/>
-      <c r="AN26" s="80"/>
-      <c r="AO26" s="80"/>
-      <c r="AP26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="79"/>
+      <c r="AM26" s="79"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="80"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
@@ -8338,10 +8313,10 @@
       <c r="A27" s="9"/>
       <c r="B27" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -8351,39 +8326,41 @@
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="84" t="s">
-        <v>25</v>
+      <c r="L27" s="77" t="s">
+        <v>42</v>
       </c>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="75"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="73"/>
       <c r="X27" s="19"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="22"/>
       <c r="AB27" s="22"/>
       <c r="AC27" s="23"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="80"/>
-      <c r="AF27" s="81"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="80"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="80"/>
-      <c r="AO27" s="80"/>
-      <c r="AP27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="79"/>
+      <c r="AM27" s="79"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="79"/>
+      <c r="AP27" s="80"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
@@ -8406,49 +8383,58 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
     </row>
-    <row r="28" spans="1:63">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
+    <row r="28" spans="1:63" outlineLevel="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="80"/>
+      <c r="AG28" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="79"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="80"/>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
@@ -8471,116 +8457,128 @@
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
     </row>
-    <row r="29" spans="1:63">
-      <c r="A29" s="26" t="s">
-        <v>65</v>
+    <row r="29" spans="1:63" outlineLevel="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="8"/>
-      <c r="AO29" s="8"/>
-      <c r="AP29" s="8"/>
-      <c r="AQ29" s="8"/>
-      <c r="AR29" s="8"/>
-      <c r="AS29" s="8"/>
-      <c r="AT29" s="8"/>
-      <c r="AU29" s="8"/>
-      <c r="AV29" s="8"/>
-      <c r="AW29" s="8"/>
-      <c r="AX29" s="8"/>
-      <c r="AY29" s="8"/>
-      <c r="AZ29" s="8"/>
-      <c r="BA29" s="8"/>
-      <c r="BB29" s="8"/>
-      <c r="BC29" s="8"/>
-      <c r="BD29" s="8"/>
-      <c r="BE29" s="8"/>
-      <c r="BF29" s="8"/>
-      <c r="BG29" s="8"/>
-      <c r="BH29" s="8"/>
-      <c r="BI29" s="8"/>
-      <c r="BJ29" s="8"/>
-      <c r="BK29" s="8"/>
-    </row>
-    <row r="30" spans="1:63">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
+      <c r="C29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="80"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+    </row>
+    <row r="30" spans="1:63" outlineLevel="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="80"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="79"/>
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="79"/>
+      <c r="AP30" s="80"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="3"/>
@@ -8603,76 +8601,64 @@
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
     </row>
-    <row r="31" spans="1:63" outlineLevel="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="14"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="12"/>
-      <c r="AL31" s="12"/>
-      <c r="AM31" s="12"/>
-      <c r="AN31" s="12"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ31" s="14"/>
-      <c r="AR31" s="12"/>
-      <c r="AS31" s="12"/>
-      <c r="AT31" s="15"/>
-      <c r="AU31" s="15"/>
-      <c r="AV31" s="15"/>
-      <c r="AW31" s="15"/>
-      <c r="AX31" s="15"/>
-      <c r="AY31" s="15"/>
-      <c r="AZ31" s="15"/>
-      <c r="BA31" s="15"/>
-      <c r="BB31" s="15"/>
-      <c r="BC31" s="12"/>
-      <c r="BD31" s="12"/>
-      <c r="BE31" s="13"/>
+    <row r="31" spans="1:63">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
       <c r="BF31" s="3"/>
       <c r="BG31" s="3"/>
       <c r="BH31" s="3"/>
@@ -8680,155 +8666,131 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
     </row>
-    <row r="32" spans="1:63" outlineLevel="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="18">
-        <f t="shared" ref="B32:B41" si="1">ROW()-31</f>
-        <v>1</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
-      <c r="AH32" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="20"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="20"/>
-      <c r="AN32" s="20"/>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ32" s="20"/>
-      <c r="AR32" s="20"/>
-      <c r="AS32" s="20"/>
-      <c r="AT32" s="20"/>
-      <c r="AU32" s="20"/>
-      <c r="AV32" s="20"/>
-      <c r="AW32" s="20"/>
-      <c r="AX32" s="20"/>
-      <c r="AY32" s="20"/>
-      <c r="AZ32" s="20"/>
-      <c r="BA32" s="20"/>
-      <c r="BB32" s="20"/>
-      <c r="BC32" s="20"/>
-      <c r="BD32" s="20"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="3"/>
-      <c r="BG32" s="3"/>
-      <c r="BH32" s="3"/>
-      <c r="BI32" s="3"/>
-      <c r="BJ32" s="3"/>
-      <c r="BK32" s="3"/>
-    </row>
-    <row r="33" spans="1:63" outlineLevel="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="29" t="s">
+    <row r="32" spans="1:63">
+      <c r="A32" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="AI33" s="20"/>
-      <c r="AJ33" s="20"/>
-      <c r="AK33" s="20"/>
-      <c r="AL33" s="20"/>
-      <c r="AM33" s="20"/>
-      <c r="AN33" s="20"/>
-      <c r="AO33" s="21"/>
-      <c r="AP33" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ33" s="80"/>
-      <c r="AR33" s="80"/>
-      <c r="AS33" s="80"/>
-      <c r="AT33" s="80"/>
-      <c r="AU33" s="80"/>
-      <c r="AV33" s="80"/>
-      <c r="AW33" s="80"/>
-      <c r="AX33" s="80"/>
-      <c r="AY33" s="80"/>
-      <c r="AZ33" s="80"/>
-      <c r="BA33" s="80"/>
-      <c r="BB33" s="80"/>
-      <c r="BC33" s="80"/>
-      <c r="BD33" s="80"/>
-      <c r="BE33" s="81"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="8"/>
+      <c r="AO32" s="8"/>
+      <c r="AP32" s="8"/>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="8"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="8"/>
+      <c r="AU32" s="8"/>
+      <c r="AV32" s="8"/>
+      <c r="AW32" s="8"/>
+      <c r="AX32" s="8"/>
+      <c r="AY32" s="8"/>
+      <c r="AZ32" s="8"/>
+      <c r="BA32" s="8"/>
+      <c r="BB32" s="8"/>
+      <c r="BC32" s="8"/>
+      <c r="BD32" s="8"/>
+      <c r="BE32" s="8"/>
+      <c r="BF32" s="8"/>
+      <c r="BG32" s="8"/>
+      <c r="BH32" s="8"/>
+      <c r="BI32" s="8"/>
+      <c r="BJ32" s="8"/>
+      <c r="BK32" s="8"/>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
       <c r="BF33" s="3"/>
       <c r="BG33" s="3"/>
       <c r="BH33" s="3"/>
@@ -8838,73 +8800,74 @@
     </row>
     <row r="34" spans="1:63" outlineLevel="1">
       <c r="A34" s="24"/>
-      <c r="B34" s="18">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B34" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="19" t="s">
-        <v>43</v>
+      <c r="C34" s="11" t="s">
+        <v>28</v>
       </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="19" t="s">
-        <v>34</v>
+      <c r="D34" s="14"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="11" t="s">
+        <v>29</v>
       </c>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="29" t="s">
-        <v>34</v>
+      <c r="K34" s="14"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="11" t="s">
+        <v>30</v>
       </c>
-      <c r="AI34" s="20"/>
-      <c r="AJ34" s="20"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="20"/>
-      <c r="AN34" s="20"/>
-      <c r="AO34" s="21"/>
-      <c r="AP34" s="19" t="s">
-        <v>34</v>
+      <c r="S34" s="14"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="25" t="s">
+        <v>31</v>
       </c>
-      <c r="AQ34" s="20"/>
-      <c r="AR34" s="20"/>
-      <c r="AS34" s="20"/>
-      <c r="AT34" s="20"/>
-      <c r="AU34" s="20"/>
-      <c r="AV34" s="20"/>
-      <c r="AW34" s="20"/>
-      <c r="AX34" s="20"/>
-      <c r="AY34" s="20"/>
-      <c r="AZ34" s="20"/>
-      <c r="BA34" s="20"/>
-      <c r="BB34" s="20"/>
-      <c r="BC34" s="20"/>
-      <c r="BD34" s="20"/>
-      <c r="BE34" s="21"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="12"/>
+      <c r="BD34" s="12"/>
+      <c r="BE34" s="13"/>
       <c r="BF34" s="3"/>
       <c r="BG34" s="3"/>
       <c r="BH34" s="3"/>
@@ -8915,66 +8878,74 @@
     <row r="35" spans="1:63" outlineLevel="1">
       <c r="A35" s="24"/>
       <c r="B35" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="B35:B44" si="1">ROW()-34</f>
+        <v>1</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="47" t="s">
-        <v>76</v>
+      <c r="C35" s="26" t="s">
+        <v>33</v>
       </c>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
-      <c r="AM35" s="48"/>
-      <c r="AN35" s="48"/>
-      <c r="AO35" s="48"/>
-      <c r="AP35" s="48"/>
-      <c r="AQ35" s="48"/>
-      <c r="AR35" s="48"/>
-      <c r="AS35" s="48"/>
-      <c r="AT35" s="48"/>
-      <c r="AU35" s="48"/>
-      <c r="AV35" s="48"/>
-      <c r="AW35" s="48"/>
-      <c r="AX35" s="48"/>
-      <c r="AY35" s="48"/>
-      <c r="AZ35" s="48"/>
-      <c r="BA35" s="48"/>
-      <c r="BB35" s="48"/>
-      <c r="BC35" s="48"/>
-      <c r="BD35" s="48"/>
-      <c r="BE35" s="49"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="20"/>
+      <c r="AO35" s="21"/>
+      <c r="AP35" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ35" s="20"/>
+      <c r="AR35" s="20"/>
+      <c r="AS35" s="20"/>
+      <c r="AT35" s="20"/>
+      <c r="AU35" s="20"/>
+      <c r="AV35" s="20"/>
+      <c r="AW35" s="20"/>
+      <c r="AX35" s="20"/>
+      <c r="AY35" s="20"/>
+      <c r="AZ35" s="20"/>
+      <c r="BA35" s="20"/>
+      <c r="BB35" s="20"/>
+      <c r="BC35" s="20"/>
+      <c r="BD35" s="20"/>
+      <c r="BE35" s="21"/>
       <c r="BF35" s="3"/>
       <c r="BG35" s="3"/>
       <c r="BH35" s="3"/>
@@ -8982,31 +8953,33 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="3"/>
     </row>
-    <row r="36" spans="1:63" outlineLevel="1">
+    <row r="36" spans="1:63" ht="33" customHeight="1" outlineLevel="1">
       <c r="A36" s="24"/>
       <c r="B36" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
+      <c r="C36" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="33"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="29" t="s">
-        <v>82</v>
+      <c r="J36" s="78" t="s">
+        <v>83</v>
       </c>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="51" t="s">
-        <v>83</v>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
@@ -9023,8 +8996,8 @@
       <c r="AE36" s="20"/>
       <c r="AF36" s="20"/>
       <c r="AG36" s="20"/>
-      <c r="AH36" s="29" t="s">
-        <v>34</v>
+      <c r="AH36" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="AI36" s="20"/>
       <c r="AJ36" s="20"/>
@@ -9033,24 +9006,24 @@
       <c r="AM36" s="20"/>
       <c r="AN36" s="20"/>
       <c r="AO36" s="21"/>
-      <c r="AP36" s="19" t="s">
-        <v>34</v>
+      <c r="AP36" s="82" t="s">
+        <v>139</v>
       </c>
-      <c r="AQ36" s="20"/>
-      <c r="AR36" s="20"/>
-      <c r="AS36" s="20"/>
-      <c r="AT36" s="20"/>
-      <c r="AU36" s="20"/>
-      <c r="AV36" s="20"/>
-      <c r="AW36" s="20"/>
-      <c r="AX36" s="20"/>
-      <c r="AY36" s="20"/>
-      <c r="AZ36" s="20"/>
-      <c r="BA36" s="20"/>
-      <c r="BB36" s="20"/>
-      <c r="BC36" s="20"/>
-      <c r="BD36" s="20"/>
-      <c r="BE36" s="21"/>
+      <c r="AQ36" s="79"/>
+      <c r="AR36" s="79"/>
+      <c r="AS36" s="79"/>
+      <c r="AT36" s="79"/>
+      <c r="AU36" s="79"/>
+      <c r="AV36" s="79"/>
+      <c r="AW36" s="79"/>
+      <c r="AX36" s="79"/>
+      <c r="AY36" s="79"/>
+      <c r="AZ36" s="79"/>
+      <c r="BA36" s="79"/>
+      <c r="BB36" s="79"/>
+      <c r="BC36" s="79"/>
+      <c r="BD36" s="79"/>
+      <c r="BE36" s="80"/>
       <c r="BF36" s="3"/>
       <c r="BG36" s="3"/>
       <c r="BH36" s="3"/>
@@ -9062,27 +9035,27 @@
       <c r="A37" s="24"/>
       <c r="B37" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
       <c r="I37" s="33"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="29" t="s">
-        <v>87</v>
+      <c r="J37" s="19" t="s">
+        <v>40</v>
       </c>
+      <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="21"/>
-      <c r="R37" s="51" t="s">
-        <v>88</v>
+      <c r="R37" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
@@ -9099,7 +9072,7 @@
       <c r="AE37" s="20"/>
       <c r="AF37" s="20"/>
       <c r="AG37" s="20"/>
-      <c r="AH37" s="29" t="s">
+      <c r="AH37" s="28" t="s">
         <v>34</v>
       </c>
       <c r="AI37" s="20"/>
@@ -9138,71 +9111,65 @@
       <c r="A38" s="24"/>
       <c r="B38" s="18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
       <c r="I38" s="33"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="20" t="s">
-        <v>90</v>
+      <c r="J38" s="50" t="s">
+        <v>101</v>
       </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI38" s="20"/>
-      <c r="AJ38" s="20"/>
-      <c r="AK38" s="20"/>
-      <c r="AL38" s="20"/>
-      <c r="AM38" s="20"/>
-      <c r="AN38" s="20"/>
-      <c r="AO38" s="21"/>
-      <c r="AP38" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ38" s="20"/>
-      <c r="AR38" s="20"/>
-      <c r="AS38" s="20"/>
-      <c r="AT38" s="20"/>
-      <c r="AU38" s="20"/>
-      <c r="AV38" s="20"/>
-      <c r="AW38" s="20"/>
-      <c r="AX38" s="20"/>
-      <c r="AY38" s="20"/>
-      <c r="AZ38" s="20"/>
-      <c r="BA38" s="20"/>
-      <c r="BB38" s="20"/>
-      <c r="BC38" s="20"/>
-      <c r="BD38" s="20"/>
-      <c r="BE38" s="21"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
+      <c r="AK38" s="51"/>
+      <c r="AL38" s="51"/>
+      <c r="AM38" s="51"/>
+      <c r="AN38" s="51"/>
+      <c r="AO38" s="51"/>
+      <c r="AP38" s="51"/>
+      <c r="AQ38" s="51"/>
+      <c r="AR38" s="51"/>
+      <c r="AS38" s="51"/>
+      <c r="AT38" s="51"/>
+      <c r="AU38" s="51"/>
+      <c r="AV38" s="51"/>
+      <c r="AW38" s="51"/>
+      <c r="AX38" s="51"/>
+      <c r="AY38" s="51"/>
+      <c r="AZ38" s="51"/>
+      <c r="BA38" s="51"/>
+      <c r="BB38" s="51"/>
+      <c r="BC38" s="51"/>
+      <c r="BD38" s="51"/>
+      <c r="BE38" s="54"/>
       <c r="BF38" s="3"/>
       <c r="BG38" s="3"/>
       <c r="BH38" s="3"/>
@@ -9214,63 +9181,71 @@
       <c r="A39" s="24"/>
       <c r="B39" s="18">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="56"/>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="59"/>
-      <c r="AP39" s="59"/>
-      <c r="AQ39" s="56"/>
-      <c r="AR39" s="56"/>
-      <c r="AS39" s="56"/>
-      <c r="AT39" s="56"/>
-      <c r="AU39" s="56"/>
-      <c r="AV39" s="56"/>
-      <c r="AW39" s="56"/>
-      <c r="AX39" s="56"/>
-      <c r="AY39" s="56"/>
-      <c r="AZ39" s="56"/>
-      <c r="BA39" s="56"/>
-      <c r="BB39" s="56"/>
-      <c r="BC39" s="56"/>
-      <c r="BD39" s="56"/>
-      <c r="BE39" s="63"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ39" s="20"/>
+      <c r="AR39" s="20"/>
+      <c r="AS39" s="20"/>
+      <c r="AT39" s="20"/>
+      <c r="AU39" s="20"/>
+      <c r="AV39" s="20"/>
+      <c r="AW39" s="20"/>
+      <c r="AX39" s="20"/>
+      <c r="AY39" s="20"/>
+      <c r="AZ39" s="20"/>
+      <c r="BA39" s="20"/>
+      <c r="BB39" s="20"/>
+      <c r="BC39" s="20"/>
+      <c r="BD39" s="20"/>
+      <c r="BE39" s="21"/>
       <c r="BF39" s="3"/>
       <c r="BG39" s="3"/>
       <c r="BH39" s="3"/>
@@ -9282,27 +9257,27 @@
       <c r="A40" s="24"/>
       <c r="B40" s="18">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="79" t="s">
-        <v>102</v>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="28" t="s">
+        <v>106</v>
       </c>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="29" t="s">
-        <v>34</v>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
@@ -9319,7 +9294,7 @@
       <c r="AE40" s="20"/>
       <c r="AF40" s="20"/>
       <c r="AG40" s="20"/>
-      <c r="AH40" s="29" t="s">
+      <c r="AH40" s="28" t="s">
         <v>34</v>
       </c>
       <c r="AI40" s="20"/>
@@ -9358,29 +9333,27 @@
       <c r="A41" s="24"/>
       <c r="B41" s="18">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>113</v>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="20" t="s">
+        <v>110</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
       <c r="Q41" s="21"/>
-      <c r="R41" s="19" t="s">
-        <v>118</v>
+      <c r="R41" s="61" t="s">
+        <v>111</v>
       </c>
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
@@ -9397,7 +9370,7 @@
       <c r="AE41" s="20"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20"/>
-      <c r="AH41" s="29" t="s">
+      <c r="AH41" s="28" t="s">
         <v>34</v>
       </c>
       <c r="AI41" s="20"/>
@@ -9407,7 +9380,7 @@
       <c r="AM41" s="20"/>
       <c r="AN41" s="20"/>
       <c r="AO41" s="21"/>
-      <c r="AP41" s="29" t="s">
+      <c r="AP41" s="19" t="s">
         <v>34</v>
       </c>
       <c r="AQ41" s="20"/>
@@ -9432,64 +9405,67 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="3"/>
     </row>
-    <row r="42" spans="1:63">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="3"/>
-      <c r="AL42" s="3"/>
-      <c r="AM42" s="3"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="3"/>
-      <c r="AP42" s="3"/>
-      <c r="AQ42" s="3"/>
-      <c r="AR42" s="3"/>
-      <c r="AS42" s="3"/>
-      <c r="AT42" s="3"/>
-      <c r="AU42" s="3"/>
-      <c r="AV42" s="3"/>
-      <c r="AW42" s="3"/>
-      <c r="AX42" s="3"/>
-      <c r="AY42" s="3"/>
-      <c r="AZ42" s="3"/>
-      <c r="BA42" s="3"/>
-      <c r="BB42" s="3"/>
-      <c r="BC42" s="3"/>
-      <c r="BD42" s="3"/>
-      <c r="BE42" s="3"/>
+    <row r="42" spans="1:63" outlineLevel="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="63"/>
+      <c r="AA42" s="63"/>
+      <c r="AB42" s="63"/>
+      <c r="AC42" s="63"/>
+      <c r="AD42" s="63"/>
+      <c r="AE42" s="63"/>
+      <c r="AF42" s="63"/>
+      <c r="AG42" s="63"/>
+      <c r="AH42" s="63"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
+      <c r="AK42" s="63"/>
+      <c r="AL42" s="63"/>
+      <c r="AM42" s="63"/>
+      <c r="AN42" s="63"/>
+      <c r="AO42" s="63"/>
+      <c r="AP42" s="63"/>
+      <c r="AQ42" s="63"/>
+      <c r="AR42" s="63"/>
+      <c r="AS42" s="63"/>
+      <c r="AT42" s="63"/>
+      <c r="AU42" s="63"/>
+      <c r="AV42" s="63"/>
+      <c r="AW42" s="63"/>
+      <c r="AX42" s="63"/>
+      <c r="AY42" s="63"/>
+      <c r="AZ42" s="63"/>
+      <c r="BA42" s="63"/>
+      <c r="BB42" s="63"/>
+      <c r="BC42" s="63"/>
+      <c r="BD42" s="63"/>
+      <c r="BE42" s="64"/>
       <c r="BF42" s="3"/>
       <c r="BG42" s="3"/>
       <c r="BH42" s="3"/>
@@ -9497,131 +9473,153 @@
       <c r="BJ42" s="3"/>
       <c r="BK42" s="3"/>
     </row>
-    <row r="43" spans="1:63">
-      <c r="A43" s="26" t="s">
-        <v>121</v>
+    <row r="43" spans="1:63" ht="31.5" customHeight="1" outlineLevel="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="18">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
-      <c r="AM43" s="8"/>
-      <c r="AN43" s="8"/>
-      <c r="AO43" s="8"/>
-      <c r="AP43" s="8"/>
-      <c r="AQ43" s="8"/>
-      <c r="AR43" s="8"/>
-      <c r="AS43" s="8"/>
-      <c r="AT43" s="8"/>
-      <c r="AU43" s="8"/>
-      <c r="AV43" s="8"/>
-      <c r="AW43" s="8"/>
-      <c r="AX43" s="8"/>
-      <c r="AY43" s="8"/>
-      <c r="AZ43" s="8"/>
-      <c r="BA43" s="8"/>
-      <c r="BB43" s="8"/>
-      <c r="BC43" s="8"/>
-      <c r="BD43" s="8"/>
-      <c r="BE43" s="8"/>
-      <c r="BF43" s="8"/>
-      <c r="BG43" s="8"/>
-      <c r="BH43" s="8"/>
-      <c r="BI43" s="8"/>
-      <c r="BJ43" s="8"/>
-      <c r="BK43" s="8"/>
-    </row>
-    <row r="44" spans="1:63">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="3"/>
-      <c r="AL44" s="3"/>
-      <c r="AM44" s="3"/>
-      <c r="AN44" s="3"/>
-      <c r="AO44" s="3"/>
-      <c r="AP44" s="3"/>
-      <c r="AQ44" s="3"/>
-      <c r="AR44" s="3"/>
-      <c r="AS44" s="3"/>
-      <c r="AT44" s="3"/>
-      <c r="AU44" s="3"/>
-      <c r="AV44" s="3"/>
-      <c r="AW44" s="3"/>
-      <c r="AX44" s="3"/>
-      <c r="AY44" s="3"/>
-      <c r="AZ44" s="3"/>
-      <c r="BA44" s="3"/>
-      <c r="BB44" s="3"/>
-      <c r="BC44" s="3"/>
-      <c r="BD44" s="3"/>
-      <c r="BE44" s="3"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="20"/>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI43" s="20"/>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="20"/>
+      <c r="AL43" s="20"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="20"/>
+      <c r="AO43" s="21"/>
+      <c r="AP43" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ43" s="20"/>
+      <c r="AR43" s="20"/>
+      <c r="AS43" s="20"/>
+      <c r="AT43" s="20"/>
+      <c r="AU43" s="20"/>
+      <c r="AV43" s="20"/>
+      <c r="AW43" s="20"/>
+      <c r="AX43" s="20"/>
+      <c r="AY43" s="20"/>
+      <c r="AZ43" s="20"/>
+      <c r="BA43" s="20"/>
+      <c r="BB43" s="20"/>
+      <c r="BC43" s="20"/>
+      <c r="BD43" s="20"/>
+      <c r="BE43" s="21"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
+      <c r="BJ43" s="3"/>
+      <c r="BK43" s="3"/>
+    </row>
+    <row r="44" spans="1:63" outlineLevel="1">
+      <c r="A44" s="24"/>
+      <c r="B44" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="20"/>
+      <c r="AL44" s="20"/>
+      <c r="AM44" s="20"/>
+      <c r="AN44" s="20"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ44" s="20"/>
+      <c r="AR44" s="20"/>
+      <c r="AS44" s="20"/>
+      <c r="AT44" s="20"/>
+      <c r="AU44" s="20"/>
+      <c r="AV44" s="20"/>
+      <c r="AW44" s="20"/>
+      <c r="AX44" s="20"/>
+      <c r="AY44" s="20"/>
+      <c r="AZ44" s="20"/>
+      <c r="BA44" s="20"/>
+      <c r="BB44" s="20"/>
+      <c r="BC44" s="20"/>
+      <c r="BD44" s="20"/>
+      <c r="BE44" s="21"/>
       <c r="BF44" s="3"/>
       <c r="BG44" s="3"/>
       <c r="BH44" s="3"/>
@@ -9629,677 +9627,675 @@
       <c r="BJ44" s="3"/>
       <c r="BK44" s="3"/>
     </row>
-    <row r="45" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A45" s="68"/>
-      <c r="B45" s="69" t="s">
+    <row r="45" spans="1:63">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="3"/>
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="3"/>
+      <c r="BB45" s="3"/>
+      <c r="BC45" s="3"/>
+      <c r="BD45" s="3"/>
+      <c r="BE45" s="3"/>
+      <c r="BF45" s="3"/>
+      <c r="BG45" s="3"/>
+      <c r="BH45" s="3"/>
+      <c r="BI45" s="3"/>
+      <c r="BJ45" s="3"/>
+      <c r="BK45" s="3"/>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+      <c r="AO46" s="8"/>
+      <c r="AP46" s="8"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="8"/>
+      <c r="AS46" s="8"/>
+      <c r="AT46" s="8"/>
+      <c r="AU46" s="8"/>
+      <c r="AV46" s="8"/>
+      <c r="AW46" s="8"/>
+      <c r="AX46" s="8"/>
+      <c r="AY46" s="8"/>
+      <c r="AZ46" s="8"/>
+      <c r="BA46" s="8"/>
+      <c r="BB46" s="8"/>
+      <c r="BC46" s="8"/>
+      <c r="BD46" s="8"/>
+      <c r="BE46" s="8"/>
+      <c r="BF46" s="8"/>
+      <c r="BG46" s="8"/>
+      <c r="BH46" s="8"/>
+      <c r="BI46" s="8"/>
+      <c r="BJ46" s="8"/>
+      <c r="BK46" s="8"/>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+      <c r="BD47" s="3"/>
+      <c r="BE47" s="3"/>
+      <c r="BF47" s="3"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="3"/>
+      <c r="BI47" s="3"/>
+      <c r="BJ47" s="3"/>
+      <c r="BK47" s="3"/>
+    </row>
+    <row r="48" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A48" s="66"/>
+      <c r="B48" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
+      <c r="X48" s="66"/>
+      <c r="Y48" s="66"/>
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="66"/>
+      <c r="AB48" s="66"/>
+      <c r="AC48" s="66"/>
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="66"/>
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="66"/>
+      <c r="AL48" s="66"/>
+      <c r="AM48" s="66"/>
+      <c r="AN48" s="66"/>
+      <c r="AO48" s="66"/>
+      <c r="AP48" s="66"/>
+      <c r="AQ48" s="66"/>
+      <c r="AR48" s="66"/>
+      <c r="AS48" s="66"/>
+      <c r="AT48" s="66"/>
+      <c r="AU48" s="66"/>
+      <c r="AV48" s="66"/>
+      <c r="AW48" s="66"/>
+      <c r="AX48" s="66"/>
+      <c r="AY48" s="66"/>
+      <c r="AZ48" s="66"/>
+      <c r="BA48" s="66"/>
+      <c r="BB48" s="66"/>
+      <c r="BC48" s="66"/>
+      <c r="BD48" s="66"/>
+      <c r="BE48" s="66"/>
+      <c r="BF48" s="66"/>
+      <c r="BG48" s="66"/>
+      <c r="BH48" s="66"/>
+      <c r="BI48" s="66"/>
+      <c r="BJ48" s="66"/>
+      <c r="BK48" s="66"/>
+    </row>
+    <row r="49" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A49" s="66"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="68"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
-      <c r="W45" s="68"/>
-      <c r="X45" s="68"/>
-      <c r="Y45" s="68"/>
-      <c r="Z45" s="68"/>
-      <c r="AA45" s="68"/>
-      <c r="AB45" s="68"/>
-      <c r="AC45" s="68"/>
-      <c r="AD45" s="68"/>
-      <c r="AE45" s="68"/>
-      <c r="AF45" s="68"/>
-      <c r="AG45" s="68"/>
-      <c r="AH45" s="68"/>
-      <c r="AI45" s="68"/>
-      <c r="AJ45" s="68"/>
-      <c r="AK45" s="68"/>
-      <c r="AL45" s="68"/>
-      <c r="AM45" s="68"/>
-      <c r="AN45" s="68"/>
-      <c r="AO45" s="68"/>
-      <c r="AP45" s="68"/>
-      <c r="AQ45" s="68"/>
-      <c r="AR45" s="68"/>
-      <c r="AS45" s="68"/>
-      <c r="AT45" s="68"/>
-      <c r="AU45" s="68"/>
-      <c r="AV45" s="68"/>
-      <c r="AW45" s="68"/>
-      <c r="AX45" s="68"/>
-      <c r="AY45" s="68"/>
-      <c r="AZ45" s="68"/>
-      <c r="BA45" s="68"/>
-      <c r="BB45" s="68"/>
-      <c r="BC45" s="68"/>
-      <c r="BD45" s="68"/>
-      <c r="BE45" s="68"/>
-      <c r="BF45" s="68"/>
-      <c r="BG45" s="68"/>
-      <c r="BH45" s="68"/>
-      <c r="BI45" s="68"/>
-      <c r="BJ45" s="68"/>
-      <c r="BK45" s="68"/>
-    </row>
-    <row r="46" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A46" s="68"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="71" t="s">
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="66"/>
+      <c r="T49" s="66"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="66"/>
+      <c r="W49" s="66"/>
+      <c r="X49" s="66"/>
+      <c r="Y49" s="66"/>
+      <c r="Z49" s="66"/>
+      <c r="AA49" s="66"/>
+      <c r="AB49" s="66"/>
+      <c r="AC49" s="66"/>
+      <c r="AD49" s="66"/>
+      <c r="AE49" s="66"/>
+      <c r="AF49" s="66"/>
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="66"/>
+      <c r="AK49" s="66"/>
+      <c r="AL49" s="66"/>
+      <c r="AM49" s="66"/>
+      <c r="AN49" s="66"/>
+      <c r="AO49" s="66"/>
+      <c r="AP49" s="66"/>
+      <c r="AQ49" s="66"/>
+      <c r="AR49" s="66"/>
+      <c r="AS49" s="66"/>
+      <c r="AT49" s="66"/>
+      <c r="AU49" s="66"/>
+      <c r="AV49" s="66"/>
+      <c r="AW49" s="66"/>
+      <c r="AX49" s="66"/>
+      <c r="AY49" s="66"/>
+      <c r="AZ49" s="66"/>
+      <c r="BA49" s="66"/>
+      <c r="BB49" s="66"/>
+      <c r="BC49" s="66"/>
+      <c r="BD49" s="66"/>
+      <c r="BE49" s="66"/>
+      <c r="BF49" s="66"/>
+      <c r="BG49" s="66"/>
+      <c r="BH49" s="66"/>
+      <c r="BI49" s="66"/>
+      <c r="BJ49" s="66"/>
+      <c r="BK49" s="66"/>
+    </row>
+    <row r="50" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A50" s="66"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68"/>
-      <c r="U46" s="68"/>
-      <c r="V46" s="68"/>
-      <c r="W46" s="68"/>
-      <c r="X46" s="68"/>
-      <c r="Y46" s="68"/>
-      <c r="Z46" s="68"/>
-      <c r="AA46" s="68"/>
-      <c r="AB46" s="68"/>
-      <c r="AC46" s="68"/>
-      <c r="AD46" s="68"/>
-      <c r="AE46" s="68"/>
-      <c r="AF46" s="68"/>
-      <c r="AG46" s="68"/>
-      <c r="AH46" s="68"/>
-      <c r="AI46" s="68"/>
-      <c r="AJ46" s="68"/>
-      <c r="AK46" s="68"/>
-      <c r="AL46" s="68"/>
-      <c r="AM46" s="68"/>
-      <c r="AN46" s="68"/>
-      <c r="AO46" s="68"/>
-      <c r="AP46" s="68"/>
-      <c r="AQ46" s="68"/>
-      <c r="AR46" s="68"/>
-      <c r="AS46" s="68"/>
-      <c r="AT46" s="68"/>
-      <c r="AU46" s="68"/>
-      <c r="AV46" s="68"/>
-      <c r="AW46" s="68"/>
-      <c r="AX46" s="68"/>
-      <c r="AY46" s="68"/>
-      <c r="AZ46" s="68"/>
-      <c r="BA46" s="68"/>
-      <c r="BB46" s="68"/>
-      <c r="BC46" s="68"/>
-      <c r="BD46" s="68"/>
-      <c r="BE46" s="68"/>
-      <c r="BF46" s="68"/>
-      <c r="BG46" s="68"/>
-      <c r="BH46" s="68"/>
-      <c r="BI46" s="68"/>
-      <c r="BJ46" s="68"/>
-      <c r="BK46" s="68"/>
-    </row>
-    <row r="47" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A47" s="68"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="71" t="s">
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="66"/>
+      <c r="Q50" s="66"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="66"/>
+      <c r="U50" s="66"/>
+      <c r="V50" s="66"/>
+      <c r="W50" s="66"/>
+      <c r="X50" s="66"/>
+      <c r="Y50" s="66"/>
+      <c r="Z50" s="66"/>
+      <c r="AA50" s="66"/>
+      <c r="AB50" s="66"/>
+      <c r="AC50" s="66"/>
+      <c r="AD50" s="66"/>
+      <c r="AE50" s="66"/>
+      <c r="AF50" s="66"/>
+      <c r="AG50" s="66"/>
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="66"/>
+      <c r="AJ50" s="66"/>
+      <c r="AK50" s="66"/>
+      <c r="AL50" s="66"/>
+      <c r="AM50" s="66"/>
+      <c r="AN50" s="66"/>
+      <c r="AO50" s="66"/>
+      <c r="AP50" s="66"/>
+      <c r="AQ50" s="66"/>
+      <c r="AR50" s="66"/>
+      <c r="AS50" s="66"/>
+      <c r="AT50" s="66"/>
+      <c r="AU50" s="66"/>
+      <c r="AV50" s="66"/>
+      <c r="AW50" s="66"/>
+      <c r="AX50" s="66"/>
+      <c r="AY50" s="66"/>
+      <c r="AZ50" s="66"/>
+      <c r="BA50" s="66"/>
+      <c r="BB50" s="66"/>
+      <c r="BC50" s="66"/>
+      <c r="BD50" s="66"/>
+      <c r="BE50" s="66"/>
+      <c r="BF50" s="66"/>
+      <c r="BG50" s="66"/>
+      <c r="BH50" s="66"/>
+      <c r="BI50" s="66"/>
+      <c r="BJ50" s="66"/>
+      <c r="BK50" s="66"/>
+    </row>
+    <row r="51" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A51" s="66"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="68"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="68"/>
-      <c r="U47" s="68"/>
-      <c r="V47" s="68"/>
-      <c r="W47" s="68"/>
-      <c r="X47" s="68"/>
-      <c r="Y47" s="68"/>
-      <c r="Z47" s="68"/>
-      <c r="AA47" s="68"/>
-      <c r="AB47" s="68"/>
-      <c r="AC47" s="68"/>
-      <c r="AD47" s="68"/>
-      <c r="AE47" s="68"/>
-      <c r="AF47" s="68"/>
-      <c r="AG47" s="68"/>
-      <c r="AH47" s="68"/>
-      <c r="AI47" s="68"/>
-      <c r="AJ47" s="68"/>
-      <c r="AK47" s="68"/>
-      <c r="AL47" s="68"/>
-      <c r="AM47" s="68"/>
-      <c r="AN47" s="68"/>
-      <c r="AO47" s="68"/>
-      <c r="AP47" s="68"/>
-      <c r="AQ47" s="68"/>
-      <c r="AR47" s="68"/>
-      <c r="AS47" s="68"/>
-      <c r="AT47" s="68"/>
-      <c r="AU47" s="68"/>
-      <c r="AV47" s="68"/>
-      <c r="AW47" s="68"/>
-      <c r="AX47" s="68"/>
-      <c r="AY47" s="68"/>
-      <c r="AZ47" s="68"/>
-      <c r="BA47" s="68"/>
-      <c r="BB47" s="68"/>
-      <c r="BC47" s="68"/>
-      <c r="BD47" s="68"/>
-      <c r="BE47" s="68"/>
-      <c r="BF47" s="68"/>
-      <c r="BG47" s="68"/>
-      <c r="BH47" s="68"/>
-      <c r="BI47" s="68"/>
-      <c r="BJ47" s="68"/>
-      <c r="BK47" s="68"/>
-    </row>
-    <row r="48" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A48" s="68"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="71" t="s">
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
+      <c r="T51" s="66"/>
+      <c r="U51" s="66"/>
+      <c r="V51" s="66"/>
+      <c r="W51" s="66"/>
+      <c r="X51" s="66"/>
+      <c r="Y51" s="66"/>
+      <c r="Z51" s="66"/>
+      <c r="AA51" s="66"/>
+      <c r="AB51" s="66"/>
+      <c r="AC51" s="66"/>
+      <c r="AD51" s="66"/>
+      <c r="AE51" s="66"/>
+      <c r="AF51" s="66"/>
+      <c r="AG51" s="66"/>
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="66"/>
+      <c r="AJ51" s="66"/>
+      <c r="AK51" s="66"/>
+      <c r="AL51" s="66"/>
+      <c r="AM51" s="66"/>
+      <c r="AN51" s="66"/>
+      <c r="AO51" s="66"/>
+      <c r="AP51" s="66"/>
+      <c r="AQ51" s="66"/>
+      <c r="AR51" s="66"/>
+      <c r="AS51" s="66"/>
+      <c r="AT51" s="66"/>
+      <c r="AU51" s="66"/>
+      <c r="AV51" s="66"/>
+      <c r="AW51" s="66"/>
+      <c r="AX51" s="66"/>
+      <c r="AY51" s="66"/>
+      <c r="AZ51" s="66"/>
+      <c r="BA51" s="66"/>
+      <c r="BB51" s="66"/>
+      <c r="BC51" s="66"/>
+      <c r="BD51" s="66"/>
+      <c r="BE51" s="66"/>
+      <c r="BF51" s="66"/>
+      <c r="BG51" s="66"/>
+      <c r="BH51" s="66"/>
+      <c r="BI51" s="66"/>
+      <c r="BJ51" s="66"/>
+      <c r="BK51" s="66"/>
+    </row>
+    <row r="52" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A52" s="66"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
-      <c r="W48" s="68"/>
-      <c r="X48" s="68"/>
-      <c r="Y48" s="68"/>
-      <c r="Z48" s="68"/>
-      <c r="AA48" s="68"/>
-      <c r="AB48" s="68"/>
-      <c r="AC48" s="68"/>
-      <c r="AD48" s="68"/>
-      <c r="AE48" s="68"/>
-      <c r="AF48" s="68"/>
-      <c r="AG48" s="68"/>
-      <c r="AH48" s="68"/>
-      <c r="AI48" s="68"/>
-      <c r="AJ48" s="68"/>
-      <c r="AK48" s="68"/>
-      <c r="AL48" s="68"/>
-      <c r="AM48" s="68"/>
-      <c r="AN48" s="68"/>
-      <c r="AO48" s="68"/>
-      <c r="AP48" s="68"/>
-      <c r="AQ48" s="68"/>
-      <c r="AR48" s="68"/>
-      <c r="AS48" s="68"/>
-      <c r="AT48" s="68"/>
-      <c r="AU48" s="68"/>
-      <c r="AV48" s="68"/>
-      <c r="AW48" s="68"/>
-      <c r="AX48" s="68"/>
-      <c r="AY48" s="68"/>
-      <c r="AZ48" s="68"/>
-      <c r="BA48" s="68"/>
-      <c r="BB48" s="68"/>
-      <c r="BC48" s="68"/>
-      <c r="BD48" s="68"/>
-      <c r="BE48" s="68"/>
-      <c r="BF48" s="68"/>
-      <c r="BG48" s="68"/>
-      <c r="BH48" s="68"/>
-      <c r="BI48" s="68"/>
-      <c r="BJ48" s="68"/>
-      <c r="BK48" s="68"/>
-    </row>
-    <row r="49" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A49" s="68"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="71" t="s">
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="66"/>
+      <c r="Q52" s="66"/>
+      <c r="R52" s="66"/>
+      <c r="S52" s="66"/>
+      <c r="T52" s="66"/>
+      <c r="U52" s="66"/>
+      <c r="V52" s="66"/>
+      <c r="W52" s="66"/>
+      <c r="X52" s="66"/>
+      <c r="Y52" s="66"/>
+      <c r="Z52" s="66"/>
+      <c r="AA52" s="66"/>
+      <c r="AB52" s="66"/>
+      <c r="AC52" s="66"/>
+      <c r="AD52" s="66"/>
+      <c r="AE52" s="66"/>
+      <c r="AF52" s="66"/>
+      <c r="AG52" s="66"/>
+      <c r="AH52" s="66"/>
+      <c r="AI52" s="66"/>
+      <c r="AJ52" s="66"/>
+      <c r="AK52" s="66"/>
+      <c r="AL52" s="66"/>
+      <c r="AM52" s="66"/>
+      <c r="AN52" s="66"/>
+      <c r="AO52" s="66"/>
+      <c r="AP52" s="66"/>
+      <c r="AQ52" s="66"/>
+      <c r="AR52" s="66"/>
+      <c r="AS52" s="66"/>
+      <c r="AT52" s="66"/>
+      <c r="AU52" s="66"/>
+      <c r="AV52" s="66"/>
+      <c r="AW52" s="66"/>
+      <c r="AX52" s="66"/>
+      <c r="AY52" s="66"/>
+      <c r="AZ52" s="66"/>
+      <c r="BA52" s="66"/>
+      <c r="BB52" s="66"/>
+      <c r="BC52" s="66"/>
+      <c r="BD52" s="66"/>
+      <c r="BE52" s="66"/>
+      <c r="BF52" s="66"/>
+      <c r="BG52" s="66"/>
+      <c r="BH52" s="66"/>
+      <c r="BI52" s="66"/>
+      <c r="BJ52" s="66"/>
+      <c r="BK52" s="66"/>
+    </row>
+    <row r="53" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A53" s="66"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="68"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="68"/>
-      <c r="W49" s="68"/>
-      <c r="X49" s="68"/>
-      <c r="Y49" s="68"/>
-      <c r="Z49" s="68"/>
-      <c r="AA49" s="68"/>
-      <c r="AB49" s="68"/>
-      <c r="AC49" s="68"/>
-      <c r="AD49" s="68"/>
-      <c r="AE49" s="68"/>
-      <c r="AF49" s="68"/>
-      <c r="AG49" s="68"/>
-      <c r="AH49" s="68"/>
-      <c r="AI49" s="68"/>
-      <c r="AJ49" s="68"/>
-      <c r="AK49" s="68"/>
-      <c r="AL49" s="68"/>
-      <c r="AM49" s="68"/>
-      <c r="AN49" s="68"/>
-      <c r="AO49" s="68"/>
-      <c r="AP49" s="68"/>
-      <c r="AQ49" s="68"/>
-      <c r="AR49" s="68"/>
-      <c r="AS49" s="68"/>
-      <c r="AT49" s="68"/>
-      <c r="AU49" s="68"/>
-      <c r="AV49" s="68"/>
-      <c r="AW49" s="68"/>
-      <c r="AX49" s="68"/>
-      <c r="AY49" s="68"/>
-      <c r="AZ49" s="68"/>
-      <c r="BA49" s="68"/>
-      <c r="BB49" s="68"/>
-      <c r="BC49" s="68"/>
-      <c r="BD49" s="68"/>
-      <c r="BE49" s="68"/>
-      <c r="BF49" s="68"/>
-      <c r="BG49" s="68"/>
-      <c r="BH49" s="68"/>
-      <c r="BI49" s="68"/>
-      <c r="BJ49" s="68"/>
-      <c r="BK49" s="68"/>
-    </row>
-    <row r="50" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71" t="s">
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="66"/>
+      <c r="T53" s="66"/>
+      <c r="U53" s="66"/>
+      <c r="V53" s="66"/>
+      <c r="W53" s="66"/>
+      <c r="X53" s="66"/>
+      <c r="Y53" s="66"/>
+      <c r="Z53" s="66"/>
+      <c r="AA53" s="66"/>
+      <c r="AB53" s="66"/>
+      <c r="AC53" s="66"/>
+      <c r="AD53" s="66"/>
+      <c r="AE53" s="66"/>
+      <c r="AF53" s="66"/>
+      <c r="AG53" s="66"/>
+      <c r="AH53" s="66"/>
+      <c r="AI53" s="66"/>
+      <c r="AJ53" s="66"/>
+      <c r="AK53" s="66"/>
+      <c r="AL53" s="66"/>
+      <c r="AM53" s="66"/>
+      <c r="AN53" s="66"/>
+      <c r="AO53" s="66"/>
+      <c r="AP53" s="66"/>
+      <c r="AQ53" s="66"/>
+      <c r="AR53" s="66"/>
+      <c r="AS53" s="66"/>
+      <c r="AT53" s="66"/>
+      <c r="AU53" s="66"/>
+      <c r="AV53" s="66"/>
+      <c r="AW53" s="66"/>
+      <c r="AX53" s="66"/>
+      <c r="AY53" s="66"/>
+      <c r="AZ53" s="66"/>
+      <c r="BA53" s="66"/>
+      <c r="BB53" s="66"/>
+      <c r="BC53" s="66"/>
+      <c r="BD53" s="66"/>
+      <c r="BE53" s="66"/>
+      <c r="BF53" s="66"/>
+      <c r="BG53" s="66"/>
+      <c r="BH53" s="66"/>
+      <c r="BI53" s="66"/>
+      <c r="BJ53" s="66"/>
+      <c r="BK53" s="66"/>
+    </row>
+    <row r="54" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A54" s="66"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="68"/>
-      <c r="Q50" s="68"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="68"/>
-      <c r="T50" s="68"/>
-      <c r="U50" s="68"/>
-      <c r="V50" s="68"/>
-      <c r="W50" s="68"/>
-      <c r="X50" s="68"/>
-      <c r="Y50" s="68"/>
-      <c r="Z50" s="68"/>
-      <c r="AA50" s="68"/>
-      <c r="AB50" s="68"/>
-      <c r="AC50" s="68"/>
-      <c r="AD50" s="68"/>
-      <c r="AE50" s="68"/>
-      <c r="AF50" s="68"/>
-      <c r="AG50" s="68"/>
-      <c r="AH50" s="68"/>
-      <c r="AI50" s="68"/>
-      <c r="AJ50" s="68"/>
-      <c r="AK50" s="68"/>
-      <c r="AL50" s="68"/>
-      <c r="AM50" s="68"/>
-      <c r="AN50" s="68"/>
-      <c r="AO50" s="68"/>
-      <c r="AP50" s="68"/>
-      <c r="AQ50" s="68"/>
-      <c r="AR50" s="68"/>
-      <c r="AS50" s="68"/>
-      <c r="AT50" s="68"/>
-      <c r="AU50" s="68"/>
-      <c r="AV50" s="68"/>
-      <c r="AW50" s="68"/>
-      <c r="AX50" s="68"/>
-      <c r="AY50" s="68"/>
-      <c r="AZ50" s="68"/>
-      <c r="BA50" s="68"/>
-      <c r="BB50" s="68"/>
-      <c r="BC50" s="68"/>
-      <c r="BD50" s="68"/>
-      <c r="BE50" s="68"/>
-      <c r="BF50" s="68"/>
-      <c r="BG50" s="68"/>
-      <c r="BH50" s="68"/>
-      <c r="BI50" s="68"/>
-      <c r="BJ50" s="68"/>
-      <c r="BK50" s="68"/>
-    </row>
-    <row r="51" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A51" s="68"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="68"/>
-      <c r="P51" s="68"/>
-      <c r="Q51" s="68"/>
-      <c r="R51" s="68"/>
-      <c r="S51" s="68"/>
-      <c r="T51" s="68"/>
-      <c r="U51" s="68"/>
-      <c r="V51" s="68"/>
-      <c r="W51" s="68"/>
-      <c r="X51" s="68"/>
-      <c r="Y51" s="68"/>
-      <c r="Z51" s="68"/>
-      <c r="AA51" s="68"/>
-      <c r="AB51" s="68"/>
-      <c r="AC51" s="68"/>
-      <c r="AD51" s="68"/>
-      <c r="AE51" s="68"/>
-      <c r="AF51" s="68"/>
-      <c r="AG51" s="68"/>
-      <c r="AH51" s="68"/>
-      <c r="AI51" s="68"/>
-      <c r="AJ51" s="68"/>
-      <c r="AK51" s="68"/>
-      <c r="AL51" s="68"/>
-      <c r="AM51" s="68"/>
-      <c r="AN51" s="68"/>
-      <c r="AO51" s="68"/>
-      <c r="AP51" s="68"/>
-      <c r="AQ51" s="68"/>
-      <c r="AR51" s="68"/>
-      <c r="AS51" s="68"/>
-      <c r="AT51" s="68"/>
-      <c r="AU51" s="68"/>
-      <c r="AV51" s="68"/>
-      <c r="AW51" s="68"/>
-      <c r="AX51" s="68"/>
-      <c r="AY51" s="68"/>
-      <c r="AZ51" s="68"/>
-      <c r="BA51" s="68"/>
-      <c r="BB51" s="68"/>
-      <c r="BC51" s="68"/>
-      <c r="BD51" s="68"/>
-      <c r="BE51" s="68"/>
-      <c r="BF51" s="68"/>
-      <c r="BG51" s="68"/>
-      <c r="BH51" s="68"/>
-      <c r="BI51" s="68"/>
-      <c r="BJ51" s="68"/>
-      <c r="BK51" s="68"/>
-    </row>
-    <row r="52" spans="1:63">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-      <c r="AH52" s="3"/>
-      <c r="AI52" s="3"/>
-      <c r="AJ52" s="3"/>
-      <c r="AK52" s="3"/>
-      <c r="AL52" s="3"/>
-      <c r="AM52" s="3"/>
-      <c r="AN52" s="3"/>
-      <c r="AO52" s="3"/>
-      <c r="AP52" s="3"/>
-      <c r="AQ52" s="3"/>
-      <c r="AR52" s="3"/>
-      <c r="AS52" s="3"/>
-      <c r="AT52" s="3"/>
-      <c r="AU52" s="3"/>
-      <c r="AV52" s="3"/>
-      <c r="AW52" s="3"/>
-      <c r="AX52" s="3"/>
-      <c r="AY52" s="3"/>
-      <c r="AZ52" s="3"/>
-      <c r="BA52" s="3"/>
-      <c r="BB52" s="3"/>
-      <c r="BC52" s="3"/>
-      <c r="BD52" s="3"/>
-      <c r="BE52" s="3"/>
-      <c r="BF52" s="3"/>
-      <c r="BG52" s="3"/>
-      <c r="BH52" s="3"/>
-      <c r="BI52" s="3"/>
-      <c r="BJ52" s="3"/>
-      <c r="BK52" s="3"/>
-    </row>
-    <row r="53" spans="1:63">
-      <c r="A53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-      <c r="AH53" s="2"/>
-      <c r="AI53" s="2"/>
-      <c r="AJ53" s="2"/>
-      <c r="AK53" s="2"/>
-      <c r="AL53" s="2"/>
-      <c r="AM53" s="2"/>
-      <c r="AN53" s="2"/>
-      <c r="AO53" s="2"/>
-      <c r="AP53" s="2"/>
-      <c r="AQ53" s="2"/>
-      <c r="AR53" s="2"/>
-      <c r="AS53" s="2"/>
-      <c r="AT53" s="2"/>
-      <c r="AU53" s="2"/>
-      <c r="AV53" s="2"/>
-      <c r="AW53" s="2"/>
-      <c r="AX53" s="2"/>
-      <c r="AY53" s="2"/>
-      <c r="AZ53" s="2"/>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="2"/>
-      <c r="BC53" s="2"/>
-      <c r="BD53" s="2"/>
-      <c r="BE53" s="2"/>
-      <c r="BF53" s="2"/>
-      <c r="BG53" s="2"/>
-      <c r="BH53" s="2"/>
-      <c r="BI53" s="2"/>
-      <c r="BJ53" s="2"/>
-      <c r="BK53" s="2"/>
-    </row>
-    <row r="54" spans="1:63">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
-      <c r="AI54" s="3"/>
-      <c r="AJ54" s="3"/>
-      <c r="AK54" s="3"/>
-      <c r="AL54" s="3"/>
-      <c r="AM54" s="3"/>
-      <c r="AN54" s="3"/>
-      <c r="AO54" s="3"/>
-      <c r="AP54" s="3"/>
-      <c r="AQ54" s="3"/>
-      <c r="AR54" s="3"/>
-      <c r="AS54" s="3"/>
-      <c r="AT54" s="3"/>
-      <c r="AU54" s="3"/>
-      <c r="AV54" s="3"/>
-      <c r="AW54" s="3"/>
-      <c r="AX54" s="3"/>
-      <c r="AY54" s="3"/>
-      <c r="AZ54" s="3"/>
-      <c r="BA54" s="3"/>
-      <c r="BB54" s="3"/>
-      <c r="BC54" s="3"/>
-      <c r="BD54" s="3"/>
-      <c r="BE54" s="3"/>
-      <c r="BF54" s="3"/>
-      <c r="BG54" s="3"/>
-      <c r="BH54" s="3"/>
-      <c r="BI54" s="3"/>
-      <c r="BJ54" s="3"/>
-      <c r="BK54" s="3"/>
-    </row>
-    <row r="55" spans="1:63" outlineLevel="1">
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="66"/>
+      <c r="T54" s="66"/>
+      <c r="U54" s="66"/>
+      <c r="V54" s="66"/>
+      <c r="W54" s="66"/>
+      <c r="X54" s="66"/>
+      <c r="Y54" s="66"/>
+      <c r="Z54" s="66"/>
+      <c r="AA54" s="66"/>
+      <c r="AB54" s="66"/>
+      <c r="AC54" s="66"/>
+      <c r="AD54" s="66"/>
+      <c r="AE54" s="66"/>
+      <c r="AF54" s="66"/>
+      <c r="AG54" s="66"/>
+      <c r="AH54" s="66"/>
+      <c r="AI54" s="66"/>
+      <c r="AJ54" s="66"/>
+      <c r="AK54" s="66"/>
+      <c r="AL54" s="66"/>
+      <c r="AM54" s="66"/>
+      <c r="AN54" s="66"/>
+      <c r="AO54" s="66"/>
+      <c r="AP54" s="66"/>
+      <c r="AQ54" s="66"/>
+      <c r="AR54" s="66"/>
+      <c r="AS54" s="66"/>
+      <c r="AT54" s="66"/>
+      <c r="AU54" s="66"/>
+      <c r="AV54" s="66"/>
+      <c r="AW54" s="66"/>
+      <c r="AX54" s="66"/>
+      <c r="AY54" s="66"/>
+      <c r="AZ54" s="66"/>
+      <c r="BA54" s="66"/>
+      <c r="BB54" s="66"/>
+      <c r="BC54" s="66"/>
+      <c r="BD54" s="66"/>
+      <c r="BE54" s="66"/>
+      <c r="BF54" s="66"/>
+      <c r="BG54" s="66"/>
+      <c r="BH54" s="66"/>
+      <c r="BI54" s="66"/>
+      <c r="BJ54" s="66"/>
+      <c r="BK54" s="66"/>
+    </row>
+    <row r="55" spans="1:63">
       <c r="A55" s="3"/>
-      <c r="B55" s="35" t="s">
-        <v>130</v>
-      </c>
+      <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -10362,80 +10358,78 @@
       <c r="BJ55" s="3"/>
       <c r="BK55" s="3"/>
     </row>
-    <row r="56" spans="1:63" outlineLevel="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4" t="s">
-        <v>131</v>
+    <row r="56" spans="1:63">
+      <c r="A56" s="1" t="s">
+        <v>128</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3"/>
-      <c r="AH56" s="3"/>
-      <c r="AI56" s="3"/>
-      <c r="AJ56" s="3"/>
-      <c r="AK56" s="3"/>
-      <c r="AL56" s="3"/>
-      <c r="AM56" s="3"/>
-      <c r="AN56" s="3"/>
-      <c r="AO56" s="3"/>
-      <c r="AP56" s="3"/>
-      <c r="AQ56" s="3"/>
-      <c r="AR56" s="3"/>
-      <c r="AS56" s="3"/>
-      <c r="AT56" s="3"/>
-      <c r="AU56" s="3"/>
-      <c r="AV56" s="3"/>
-      <c r="AW56" s="3"/>
-      <c r="AX56" s="3"/>
-      <c r="AY56" s="3"/>
-      <c r="AZ56" s="3"/>
-      <c r="BA56" s="3"/>
-      <c r="BB56" s="3"/>
-      <c r="BC56" s="3"/>
-      <c r="BD56" s="3"/>
-      <c r="BE56" s="3"/>
-      <c r="BF56" s="3"/>
-      <c r="BG56" s="3"/>
-      <c r="BH56" s="3"/>
-      <c r="BI56" s="3"/>
-      <c r="BJ56" s="3"/>
-      <c r="BK56" s="3"/>
-    </row>
-    <row r="57" spans="1:63" outlineLevel="1">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="2"/>
+      <c r="AN56" s="2"/>
+      <c r="AO56" s="2"/>
+      <c r="AP56" s="2"/>
+      <c r="AQ56" s="2"/>
+      <c r="AR56" s="2"/>
+      <c r="AS56" s="2"/>
+      <c r="AT56" s="2"/>
+      <c r="AU56" s="2"/>
+      <c r="AV56" s="2"/>
+      <c r="AW56" s="2"/>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="2"/>
+      <c r="AZ56" s="2"/>
+      <c r="BA56" s="2"/>
+      <c r="BB56" s="2"/>
+      <c r="BC56" s="2"/>
+      <c r="BD56" s="2"/>
+      <c r="BE56" s="2"/>
+      <c r="BF56" s="2"/>
+      <c r="BG56" s="2"/>
+      <c r="BH56" s="2"/>
+      <c r="BI56" s="2"/>
+      <c r="BJ56" s="2"/>
+      <c r="BK56" s="2"/>
+    </row>
+    <row r="57" spans="1:63">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -10498,11 +10492,11 @@
     </row>
     <row r="58" spans="1:63" outlineLevel="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="34" t="s">
+        <v>129</v>
+      </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -10566,10 +10560,10 @@
     <row r="59" spans="1:63" outlineLevel="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4" t="s">
-        <v>134</v>
+      <c r="C59" s="4" t="s">
+        <v>130</v>
       </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -10635,7 +10629,7 @@
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -10702,7 +10696,7 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -10769,7 +10763,7 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -10834,10 +10828,10 @@
     <row r="63" spans="1:63" outlineLevel="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="4" t="s">
-        <v>138</v>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4" t="s">
+        <v>134</v>
       </c>
-      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -10898,11 +10892,13 @@
       <c r="BJ63" s="3"/>
       <c r="BK63" s="3"/>
     </row>
-    <row r="64" spans="1:63">
+    <row r="64" spans="1:63" outlineLevel="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -10963,44 +10959,243 @@
       <c r="BJ64" s="3"/>
       <c r="BK64" s="3"/>
     </row>
+    <row r="65" spans="1:63" outlineLevel="1">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+      <c r="AH65" s="3"/>
+      <c r="AI65" s="3"/>
+      <c r="AJ65" s="3"/>
+      <c r="AK65" s="3"/>
+      <c r="AL65" s="3"/>
+      <c r="AM65" s="3"/>
+      <c r="AN65" s="3"/>
+      <c r="AO65" s="3"/>
+      <c r="AP65" s="3"/>
+      <c r="AQ65" s="3"/>
+      <c r="AR65" s="3"/>
+      <c r="AS65" s="3"/>
+      <c r="AT65" s="3"/>
+      <c r="AU65" s="3"/>
+      <c r="AV65" s="3"/>
+      <c r="AW65" s="3"/>
+      <c r="AX65" s="3"/>
+      <c r="AY65" s="3"/>
+      <c r="AZ65" s="3"/>
+      <c r="BA65" s="3"/>
+      <c r="BB65" s="3"/>
+      <c r="BC65" s="3"/>
+      <c r="BD65" s="3"/>
+      <c r="BE65" s="3"/>
+      <c r="BF65" s="3"/>
+      <c r="BG65" s="3"/>
+      <c r="BH65" s="3"/>
+      <c r="BI65" s="3"/>
+      <c r="BJ65" s="3"/>
+      <c r="BK65" s="3"/>
+    </row>
+    <row r="66" spans="1:63" outlineLevel="1">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="3"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="3"/>
+      <c r="AK66" s="3"/>
+      <c r="AL66" s="3"/>
+      <c r="AM66" s="3"/>
+      <c r="AN66" s="3"/>
+      <c r="AO66" s="3"/>
+      <c r="AP66" s="3"/>
+      <c r="AQ66" s="3"/>
+      <c r="AR66" s="3"/>
+      <c r="AS66" s="3"/>
+      <c r="AT66" s="3"/>
+      <c r="AU66" s="3"/>
+      <c r="AV66" s="3"/>
+      <c r="AW66" s="3"/>
+      <c r="AX66" s="3"/>
+      <c r="AY66" s="3"/>
+      <c r="AZ66" s="3"/>
+      <c r="BA66" s="3"/>
+      <c r="BB66" s="3"/>
+      <c r="BC66" s="3"/>
+      <c r="BD66" s="3"/>
+      <c r="BE66" s="3"/>
+      <c r="BF66" s="3"/>
+      <c r="BG66" s="3"/>
+      <c r="BH66" s="3"/>
+      <c r="BI66" s="3"/>
+      <c r="BJ66" s="3"/>
+      <c r="BK66" s="3"/>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="3"/>
+      <c r="AK67" s="3"/>
+      <c r="AL67" s="3"/>
+      <c r="AM67" s="3"/>
+      <c r="AN67" s="3"/>
+      <c r="AO67" s="3"/>
+      <c r="AP67" s="3"/>
+      <c r="AQ67" s="3"/>
+      <c r="AR67" s="3"/>
+      <c r="AS67" s="3"/>
+      <c r="AT67" s="3"/>
+      <c r="AU67" s="3"/>
+      <c r="AV67" s="3"/>
+      <c r="AW67" s="3"/>
+      <c r="AX67" s="3"/>
+      <c r="AY67" s="3"/>
+      <c r="AZ67" s="3"/>
+      <c r="BA67" s="3"/>
+      <c r="BB67" s="3"/>
+      <c r="BC67" s="3"/>
+      <c r="BD67" s="3"/>
+      <c r="BE67" s="3"/>
+      <c r="BF67" s="3"/>
+      <c r="BG67" s="3"/>
+      <c r="BH67" s="3"/>
+      <c r="BI67" s="3"/>
+      <c r="BJ67" s="3"/>
+      <c r="BK67" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="R25:W25"/>
     <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AG27:AP27"/>
-    <mergeCell ref="AP33:BE33"/>
     <mergeCell ref="AG26:AP26"/>
     <mergeCell ref="AG25:AP25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG27:AP27"/>
     <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG23:AP23"/>
-    <mergeCell ref="AG22:AP22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG24:AP24"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R22:W22"/>
     <mergeCell ref="R27:W27"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="AG30:AP30"/>
+    <mergeCell ref="AP36:BE36"/>
+    <mergeCell ref="AG29:AP29"/>
+    <mergeCell ref="AG28:AP28"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L26:Q26"/>
     <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L28:Q28"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="18" max="16383" man="1"/>
-    <brk id="28" max="16383" man="1"/>
-    <brk id="42" max="16383" man="1"/>
-    <brk id="52" max="16383" man="1"/>
+    <brk id="21" max="16383" man="1"/>
+    <brk id="31" max="16383" man="1"/>
+    <brk id="45" max="16383" man="1"/>
+    <brk id="55" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -11010,19 +11205,19 @@
           <x14:formula1>
             <xm:f>データ入力例!$B$1:$B$27</xm:f>
           </x14:formula1>
-          <xm:sqref>R22:R27</xm:sqref>
+          <xm:sqref>R25:R30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>データ入力例!$A$1:$A$27</xm:f>
           </x14:formula1>
-          <xm:sqref>L22:L27</xm:sqref>
+          <xm:sqref>L25:L30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>データ入力例!$C$1:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>AD22:AD27</xm:sqref>
+          <xm:sqref>AD25:AD30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11037,9 +11232,7 @@
   </sheetPr>
   <dimension ref="A1:BK26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -11048,7 +11241,7 @@
   <sheetData>
     <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11699,8 +11892,8 @@
       <c r="BK10" s="3"/>
     </row>
     <row r="11" spans="1:63">
-      <c r="A11" s="26" t="s">
-        <v>31</v>
+      <c r="A11" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -11833,10 +12026,10 @@
     <row r="13" spans="1:63" outlineLevel="1">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -11847,7 +12040,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="13"/>
       <c r="L13" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="12"/>
@@ -11855,7 +12048,7 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
@@ -11863,7 +12056,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="13"/>
       <c r="X13" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
@@ -11871,12 +12064,12 @@
       <c r="AB13" s="15"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE13" s="15"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
@@ -11915,8 +12108,8 @@
         <f>ROW()-13</f>
         <v>1</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>35</v>
+      <c r="C14" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11926,39 +12119,39 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="84" t="s">
-        <v>38</v>
+      <c r="L14" s="77" t="s">
+        <v>42</v>
       </c>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="75"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="73"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
       <c r="AC14" s="23"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="81"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="80"/>
-      <c r="AI14" s="80"/>
-      <c r="AJ14" s="80"/>
-      <c r="AK14" s="80"/>
-      <c r="AL14" s="80"/>
-      <c r="AM14" s="80"/>
-      <c r="AN14" s="80"/>
-      <c r="AO14" s="80"/>
-      <c r="AP14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="78"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="79"/>
+      <c r="AM14" s="79"/>
+      <c r="AN14" s="79"/>
+      <c r="AO14" s="79"/>
+      <c r="AP14" s="80"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
       <c r="AS14" s="3"/>
@@ -12047,8 +12240,8 @@
       <c r="BK15" s="3"/>
     </row>
     <row r="16" spans="1:63">
-      <c r="A16" s="26" t="s">
-        <v>42</v>
+      <c r="A16" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -12181,10 +12374,10 @@
     <row r="18" spans="1:63" outlineLevel="1">
       <c r="A18" s="24"/>
       <c r="B18" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12"/>
@@ -12193,7 +12386,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
       <c r="J18" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="12"/>
@@ -12203,7 +12396,7 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S18" s="14"/>
       <c r="T18" s="12"/>
@@ -12221,7 +12414,7 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="12"/>
       <c r="AH18" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI18" s="14"/>
       <c r="AJ18" s="12"/>
@@ -12261,23 +12454,23 @@
         <f>ROW()-18</f>
         <v>1</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="19" t="s">
@@ -12298,7 +12491,7 @@
       <c r="AE19" s="20"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="20"/>
-      <c r="AH19" s="29" t="s">
+      <c r="AH19" s="28" t="s">
         <v>34</v>
       </c>
       <c r="AI19" s="20"/>
@@ -12308,7 +12501,7 @@
       <c r="AM19" s="20"/>
       <c r="AN19" s="20"/>
       <c r="AO19" s="21"/>
-      <c r="AP19" s="29" t="s">
+      <c r="AP19" s="28" t="s">
         <v>34</v>
       </c>
       <c r="AQ19" s="20"/>
@@ -12399,8 +12592,8 @@
       <c r="BK20" s="3"/>
     </row>
     <row r="21" spans="1:63">
-      <c r="A21" s="26" t="s">
-        <v>57</v>
+      <c r="A21" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -12597,7 +12790,7 @@
     </row>
     <row r="24" spans="1:63">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -12799,15 +12992,9 @@
     <mergeCell ref="AG14:AP14"/>
     <mergeCell ref="AD14:AF14"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="4" manualBreakCount="4">
-    <brk id="10" max="16383" man="1"/>
-    <brk id="15" max="16383" man="1"/>
-    <brk id="20" max="16383" man="1"/>
-    <brk id="23" max="16383" man="1"/>
-  </rowBreaks>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -12843,9 +13030,7 @@
   </sheetPr>
   <dimension ref="A1:BF19"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -12853,66 +13038,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15.75" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>68</v>
+      <c r="A1" s="42" t="s">
+        <v>69</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="41"/>
-      <c r="BD1" s="41"/>
-      <c r="BE1" s="41"/>
-      <c r="BF1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
     </row>
     <row r="2" spans="1:58">
       <c r="A2" s="3"/>
@@ -13035,66 +13220,66 @@
       <c r="BF3" s="3"/>
     </row>
     <row r="4" spans="1:58" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="45"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="45"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="45"/>
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="45"/>
+      <c r="BE4" s="45"/>
+      <c r="BF4" s="45"/>
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="3"/>
@@ -13158,8 +13343,8 @@
     </row>
     <row r="6" spans="1:58" outlineLevel="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="35" t="s">
-        <v>75</v>
+      <c r="B6" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -13221,42 +13406,42 @@
     <row r="7" spans="1:58" outlineLevel="1">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="85" t="s">
-        <v>77</v>
+      <c r="C7" s="84" t="s">
+        <v>74</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="89" t="s">
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="75"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="73"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
@@ -13285,42 +13470,42 @@
     <row r="8" spans="1:58" outlineLevel="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="85" t="s">
-        <v>79</v>
+      <c r="C8" s="84" t="s">
+        <v>76</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="89" t="s">
-        <v>81</v>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="83" t="s">
+        <v>80</v>
       </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="75"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="73"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
@@ -13349,42 +13534,42 @@
     <row r="9" spans="1:58" outlineLevel="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="85" t="s">
-        <v>84</v>
+      <c r="C9" s="84" t="s">
+        <v>89</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="89" t="s">
-        <v>85</v>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="83" t="s">
+        <v>91</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="75"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="73"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
@@ -13413,42 +13598,42 @@
     <row r="10" spans="1:58" outlineLevel="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="85" t="s">
-        <v>86</v>
+      <c r="C10" s="84" t="s">
+        <v>97</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="89" t="s">
-        <v>85</v>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="83" t="s">
+        <v>91</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="75"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="73"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
@@ -13477,42 +13662,42 @@
     <row r="11" spans="1:58" outlineLevel="1">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="85" t="s">
-        <v>89</v>
+      <c r="C11" s="84" t="s">
+        <v>100</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="89" t="s">
-        <v>85</v>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="83" t="s">
+        <v>91</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="75"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="73"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
@@ -13600,8 +13785,8 @@
     </row>
     <row r="13" spans="1:58" outlineLevel="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="35" t="s">
-        <v>92</v>
+      <c r="B13" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -13663,40 +13848,40 @@
     <row r="14" spans="1:58" outlineLevel="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="55" t="s">
-        <v>93</v>
+      <c r="C14" s="53" t="s">
+        <v>103</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="62"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="58"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
@@ -13725,42 +13910,42 @@
     <row r="15" spans="1:58" outlineLevel="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="85" t="s">
-        <v>101</v>
+      <c r="C15" s="59"/>
+      <c r="D15" s="84" t="s">
+        <v>108</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="86" t="s">
-        <v>104</v>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="85" t="s">
+        <v>109</v>
       </c>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="88"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="87"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
@@ -13789,42 +13974,42 @@
     <row r="16" spans="1:58" outlineLevel="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="84" t="s">
-        <v>111</v>
+      <c r="C16" s="59"/>
+      <c r="D16" s="77" t="s">
+        <v>112</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="84" t="s">
-        <v>114</v>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="77" t="s">
+        <v>113</v>
       </c>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="75"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="73"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
@@ -13853,42 +14038,42 @@
     <row r="17" spans="1:58" outlineLevel="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="84" t="s">
-        <v>119</v>
+      <c r="C17" s="59"/>
+      <c r="D17" s="77" t="s">
+        <v>114</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="84" t="s">
-        <v>95</v>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="77" t="s">
+        <v>77</v>
       </c>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="75"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="73"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
@@ -13917,42 +14102,42 @@
     <row r="18" spans="1:58" outlineLevel="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="84" t="s">
-        <v>120</v>
+      <c r="C18" s="65"/>
+      <c r="D18" s="77" t="s">
+        <v>116</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="84" t="s">
-        <v>95</v>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="77" t="s">
+        <v>77</v>
       </c>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="75"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="73"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
@@ -14040,28 +14225,28 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D17:I17"/>
     <mergeCell ref="J17:AH17"/>
-    <mergeCell ref="D17:I17"/>
     <mergeCell ref="J18:AH18"/>
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="I7:AH7"/>
     <mergeCell ref="I8:AH8"/>
     <mergeCell ref="I9:AH9"/>
-    <mergeCell ref="I10:AH10"/>
-    <mergeCell ref="I11:AH11"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I10:AH10"/>
+    <mergeCell ref="I11:AH11"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="J16:AH16"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="J15:AH15"/>
-    <mergeCell ref="D15:I15"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14073,7 +14258,7 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -14083,321 +14268,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="58" t="s">
-        <v>19</v>
+      <c r="A1" s="46" t="s">
+        <v>20</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="49"/>
+      <c r="B5" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="49"/>
+      <c r="B7" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="49"/>
+      <c r="B9" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="49"/>
+      <c r="B10" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="61" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="49"/>
+      <c r="B11" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="49"/>
+      <c r="B12" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="61" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="49"/>
+      <c r="B13" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="49"/>
+      <c r="B14" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -65416,7 +65600,7 @@
       <c r="AW1000" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ha-resource/01_design/01_dashboard/設計書_1.3.健康情報一括登録機能.xlsx
+++ b/ha-resource/01_design/01_dashboard/設計書_1.3.健康情報一括登録機能.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\01_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480BF4A2-4044-4E5C-861C-276A6C497894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC713AC-3046-4F0B-82E9-CAD27601F39B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="2.2.健康情報一括登録確認画面" sheetId="4" r:id="rId4"/>
     <sheet name="2.3.健康情報一括登録完了画面" sheetId="5" r:id="rId5"/>
     <sheet name="3.1.ファイルIF" sheetId="6" r:id="rId6"/>
-    <sheet name="データ入力例" sheetId="7" r:id="rId7"/>
+    <sheet name="データ入力例" sheetId="7" state="hidden" r:id="rId7"/>
     <sheet name="白紙" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -960,13 +960,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -983,17 +986,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1003,9 +995,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1354,7 +1354,7 @@
     <col min="1" max="27" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1414,21 +1414,21 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="74" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
       <c r="I3" s="73"/>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="74" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="72"/>
@@ -1449,15 +1449,15 @@
       <c r="Z3" s="73"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="75">
+      <c r="B4" s="77">
         <v>43778</v>
       </c>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="73"/>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="76" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="72"/>
@@ -1486,19 +1486,19 @@
     </row>
     <row r="5" spans="1:27" ht="47.25" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="75">
+      <c r="B5" s="77">
         <v>43869</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="73"/>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="76" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="72"/>
       <c r="H5" s="72"/>
       <c r="I5" s="73"/>
-      <c r="J5" s="91" t="s">
+      <c r="J5" s="75" t="s">
         <v>140</v>
       </c>
       <c r="K5" s="72"/>
@@ -1519,7 +1519,7 @@
       <c r="Z5" s="73"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="3"/>
       <c r="B6" s="71"/>
       <c r="C6" s="72"/>
@@ -1548,7 +1548,7 @@
       <c r="Z6" s="73"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="3"/>
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
@@ -1577,7 +1577,7 @@
       <c r="Z7" s="73"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="3"/>
       <c r="B8" s="71"/>
       <c r="C8" s="72"/>
@@ -1606,7 +1606,7 @@
       <c r="Z8" s="73"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="3"/>
       <c r="B9" s="71"/>
       <c r="C9" s="72"/>
@@ -1635,7 +1635,7 @@
       <c r="Z9" s="73"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="71"/>
       <c r="C10" s="72"/>
@@ -1664,7 +1664,7 @@
       <c r="Z10" s="73"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="3"/>
       <c r="B11" s="71"/>
       <c r="C11" s="72"/>
@@ -1693,7 +1693,7 @@
       <c r="Z11" s="73"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="3"/>
       <c r="B12" s="71"/>
       <c r="C12" s="72"/>
@@ -1722,7 +1722,7 @@
       <c r="Z12" s="73"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="3"/>
       <c r="B13" s="71"/>
       <c r="C13" s="72"/>
@@ -1751,7 +1751,7 @@
       <c r="Z13" s="73"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="3"/>
       <c r="B14" s="71"/>
       <c r="C14" s="72"/>
@@ -1780,7 +1780,7 @@
       <c r="Z14" s="73"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="3"/>
       <c r="B15" s="71"/>
       <c r="C15" s="72"/>
@@ -1809,7 +1809,7 @@
       <c r="Z15" s="73"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="3"/>
       <c r="B16" s="71"/>
       <c r="C16" s="72"/>
@@ -1838,7 +1838,7 @@
       <c r="Z16" s="73"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="3"/>
       <c r="B17" s="71"/>
       <c r="C17" s="72"/>
@@ -1867,7 +1867,7 @@
       <c r="Z17" s="73"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="3"/>
       <c r="B18" s="71"/>
       <c r="C18" s="72"/>
@@ -1896,7 +1896,7 @@
       <c r="Z18" s="73"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="3"/>
       <c r="B19" s="71"/>
       <c r="C19" s="72"/>
@@ -1925,7 +1925,7 @@
       <c r="Z19" s="73"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="3"/>
       <c r="B20" s="71"/>
       <c r="C20" s="72"/>
@@ -1954,7 +1954,7 @@
       <c r="Z20" s="73"/>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="3"/>
       <c r="B21" s="71"/>
       <c r="C21" s="72"/>
@@ -1983,7 +1983,7 @@
       <c r="Z21" s="73"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="3"/>
       <c r="B22" s="71"/>
       <c r="C22" s="72"/>
@@ -2012,7 +2012,7 @@
       <c r="Z22" s="73"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="3"/>
       <c r="B23" s="71"/>
       <c r="C23" s="72"/>
@@ -2041,7 +2041,7 @@
       <c r="Z23" s="73"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="3"/>
       <c r="B24" s="71"/>
       <c r="C24" s="72"/>
@@ -2070,7 +2070,7 @@
       <c r="Z24" s="73"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="3"/>
       <c r="B25" s="71"/>
       <c r="C25" s="72"/>
@@ -2099,7 +2099,7 @@
       <c r="Z25" s="73"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="16.5">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2128,7 +2128,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="16.5">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2159,18 +2159,42 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="J7:Z7"/>
     <mergeCell ref="J19:Z19"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:I22"/>
@@ -2179,55 +2203,31 @@
     <mergeCell ref="J23:Z23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
     <mergeCell ref="J15:Z15"/>
     <mergeCell ref="J16:Z16"/>
     <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3857,7 +3857,7 @@
     <col min="1" max="63" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:63" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3989,7 +3989,7 @@
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4054,7 +4054,7 @@
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" ht="16.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4119,7 +4119,7 @@
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" ht="16.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4184,7 +4184,7 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:63" ht="16.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4249,7 +4249,7 @@
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" ht="16.5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4314,7 +4314,7 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:63" ht="16.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4379,7 +4379,7 @@
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" ht="16.5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4444,7 +4444,7 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="3"/>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4509,7 +4509,7 @@
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" ht="16.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4574,7 +4574,7 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" ht="16.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4639,7 +4639,7 @@
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" ht="16.5">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="BJ13" s="8"/>
       <c r="BK13" s="8"/>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:63" ht="16.5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4771,7 +4771,7 @@
       <c r="BJ14" s="3"/>
       <c r="BK14" s="3"/>
     </row>
-    <row r="15" spans="1:63" outlineLevel="1">
+    <row r="15" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>12</v>
@@ -4867,7 +4867,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="77" t="s">
+      <c r="L16" s="78" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="72"/>
@@ -4875,7 +4875,7 @@
       <c r="O16" s="72"/>
       <c r="P16" s="72"/>
       <c r="Q16" s="73"/>
-      <c r="R16" s="77"/>
+      <c r="R16" s="78"/>
       <c r="S16" s="72"/>
       <c r="T16" s="72"/>
       <c r="U16" s="72"/>
@@ -4887,23 +4887,23 @@
       <c r="AA16" s="22"/>
       <c r="AB16" s="22"/>
       <c r="AC16" s="23"/>
-      <c r="AD16" s="81" t="s">
+      <c r="AD16" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="78" t="s">
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="79"/>
-      <c r="AM16" s="79"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="79"/>
-      <c r="AP16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="80"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="80"/>
+      <c r="AN16" s="80"/>
+      <c r="AO16" s="80"/>
+      <c r="AP16" s="81"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
@@ -4926,7 +4926,7 @@
       <c r="BJ16" s="3"/>
       <c r="BK16" s="3"/>
     </row>
-    <row r="17" spans="1:63" outlineLevel="1">
+    <row r="17" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A17" s="9"/>
       <c r="B17" s="18">
         <f t="shared" si="0"/>
@@ -4943,7 +4943,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="78" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="72"/>
@@ -4951,7 +4951,7 @@
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
       <c r="Q17" s="73"/>
-      <c r="R17" s="77"/>
+      <c r="R17" s="78"/>
       <c r="S17" s="72"/>
       <c r="T17" s="72"/>
       <c r="U17" s="72"/>
@@ -4963,19 +4963,19 @@
       <c r="AA17" s="22"/>
       <c r="AB17" s="22"/>
       <c r="AC17" s="23"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="80"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="79"/>
-      <c r="AM17" s="79"/>
-      <c r="AN17" s="79"/>
-      <c r="AO17" s="79"/>
-      <c r="AP17" s="80"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="82"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="80"/>
+      <c r="AL17" s="80"/>
+      <c r="AM17" s="80"/>
+      <c r="AN17" s="80"/>
+      <c r="AO17" s="80"/>
+      <c r="AP17" s="81"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
@@ -4998,7 +4998,7 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="3"/>
     </row>
-    <row r="18" spans="1:63">
+    <row r="18" spans="1:63" ht="16.5">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5063,7 +5063,7 @@
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
     </row>
-    <row r="19" spans="1:63">
+    <row r="19" spans="1:63" ht="16.5">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="BJ19" s="8"/>
       <c r="BK19" s="8"/>
     </row>
-    <row r="20" spans="1:63">
+    <row r="20" spans="1:63" ht="16.5">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5195,7 +5195,7 @@
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
     </row>
-    <row r="21" spans="1:63" outlineLevel="1">
+    <row r="21" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A21" s="24"/>
       <c r="B21" s="10" t="s">
         <v>12</v>
@@ -5272,7 +5272,7 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
     </row>
-    <row r="22" spans="1:63" outlineLevel="1">
+    <row r="22" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A22" s="24"/>
       <c r="B22" s="18">
         <f t="shared" ref="B22:B27" si="1">ROW()-21</f>
@@ -5350,7 +5350,7 @@
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
     </row>
-    <row r="23" spans="1:63" outlineLevel="1">
+    <row r="23" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A23" s="24"/>
       <c r="B23" s="18">
         <f t="shared" si="1"/>
@@ -5403,24 +5403,24 @@
       <c r="AM23" s="20"/>
       <c r="AN23" s="20"/>
       <c r="AO23" s="21"/>
-      <c r="AP23" s="82" t="s">
+      <c r="AP23" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AQ23" s="79"/>
-      <c r="AR23" s="79"/>
-      <c r="AS23" s="79"/>
-      <c r="AT23" s="79"/>
-      <c r="AU23" s="79"/>
-      <c r="AV23" s="79"/>
-      <c r="AW23" s="79"/>
-      <c r="AX23" s="79"/>
-      <c r="AY23" s="79"/>
-      <c r="AZ23" s="79"/>
-      <c r="BA23" s="79"/>
-      <c r="BB23" s="79"/>
-      <c r="BC23" s="79"/>
-      <c r="BD23" s="79"/>
-      <c r="BE23" s="80"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="80"/>
+      <c r="AS23" s="80"/>
+      <c r="AT23" s="80"/>
+      <c r="AU23" s="80"/>
+      <c r="AV23" s="80"/>
+      <c r="AW23" s="80"/>
+      <c r="AX23" s="80"/>
+      <c r="AY23" s="80"/>
+      <c r="AZ23" s="80"/>
+      <c r="BA23" s="80"/>
+      <c r="BB23" s="80"/>
+      <c r="BC23" s="80"/>
+      <c r="BD23" s="80"/>
+      <c r="BE23" s="81"/>
       <c r="BF23" s="3"/>
       <c r="BG23" s="3"/>
       <c r="BH23" s="3"/>
@@ -5428,7 +5428,7 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="3"/>
     </row>
-    <row r="24" spans="1:63" outlineLevel="1">
+    <row r="24" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A24" s="24"/>
       <c r="B24" s="18">
         <f t="shared" si="1"/>
@@ -5555,24 +5555,24 @@
       <c r="AM25" s="20"/>
       <c r="AN25" s="20"/>
       <c r="AO25" s="21"/>
-      <c r="AP25" s="88" t="s">
+      <c r="AP25" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="AQ25" s="89"/>
-      <c r="AR25" s="89"/>
-      <c r="AS25" s="89"/>
-      <c r="AT25" s="89"/>
-      <c r="AU25" s="89"/>
-      <c r="AV25" s="89"/>
-      <c r="AW25" s="89"/>
-      <c r="AX25" s="89"/>
-      <c r="AY25" s="89"/>
-      <c r="AZ25" s="89"/>
-      <c r="BA25" s="89"/>
-      <c r="BB25" s="89"/>
-      <c r="BC25" s="89"/>
-      <c r="BD25" s="89"/>
-      <c r="BE25" s="90"/>
+      <c r="AQ25" s="85"/>
+      <c r="AR25" s="85"/>
+      <c r="AS25" s="85"/>
+      <c r="AT25" s="85"/>
+      <c r="AU25" s="85"/>
+      <c r="AV25" s="85"/>
+      <c r="AW25" s="85"/>
+      <c r="AX25" s="85"/>
+      <c r="AY25" s="85"/>
+      <c r="AZ25" s="85"/>
+      <c r="BA25" s="85"/>
+      <c r="BB25" s="85"/>
+      <c r="BC25" s="85"/>
+      <c r="BD25" s="85"/>
+      <c r="BE25" s="86"/>
       <c r="BF25" s="3"/>
       <c r="BG25" s="3"/>
       <c r="BH25" s="3"/>
@@ -5593,16 +5593,16 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="33"/>
-      <c r="J26" s="78" t="s">
+      <c r="J26" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="81"/>
       <c r="R26" s="19"/>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
@@ -5654,7 +5654,7 @@
       <c r="BJ26" s="3"/>
       <c r="BK26" s="3"/>
     </row>
-    <row r="27" spans="1:63" outlineLevel="1">
+    <row r="27" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A27" s="24"/>
       <c r="B27" s="18">
         <f t="shared" si="1"/>
@@ -5730,7 +5730,7 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
     </row>
-    <row r="28" spans="1:63">
+    <row r="28" spans="1:63" ht="16.5">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5795,7 +5795,7 @@
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
     </row>
-    <row r="29" spans="1:63">
+    <row r="29" spans="1:63" ht="16.5">
       <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
@@ -5862,7 +5862,7 @@
       <c r="BJ29" s="8"/>
       <c r="BK29" s="8"/>
     </row>
-    <row r="30" spans="1:63">
+    <row r="30" spans="1:63" ht="16.5">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5927,7 +5927,7 @@
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
     </row>
-    <row r="31" spans="1:63">
+    <row r="31" spans="1:63" ht="16.5">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5992,7 +5992,7 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
     </row>
-    <row r="32" spans="1:63">
+    <row r="32" spans="1:63" ht="16.5">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -6059,7 +6059,7 @@
       <c r="BJ32" s="2"/>
       <c r="BK32" s="2"/>
     </row>
-    <row r="33" spans="1:63">
+    <row r="33" spans="1:63" ht="16.5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6124,7 +6124,7 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
     </row>
-    <row r="34" spans="1:63" outlineLevel="1">
+    <row r="34" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A34" s="3"/>
       <c r="B34" s="34" t="s">
         <v>56</v>
@@ -6191,7 +6191,7 @@
       <c r="BJ34" s="3"/>
       <c r="BK34" s="3"/>
     </row>
-    <row r="35" spans="1:63" outlineLevel="1">
+    <row r="35" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="35" t="s">
@@ -6258,7 +6258,7 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="3"/>
     </row>
-    <row r="36" spans="1:63" outlineLevel="1">
+    <row r="36" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="38"/>
@@ -6325,7 +6325,7 @@
       <c r="BJ36" s="3"/>
       <c r="BK36" s="3"/>
     </row>
-    <row r="37" spans="1:63" outlineLevel="1">
+    <row r="37" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="35" t="s">
@@ -6392,7 +6392,7 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="3"/>
     </row>
-    <row r="38" spans="1:63" outlineLevel="1">
+    <row r="38" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="38"/>
@@ -6459,7 +6459,7 @@
       <c r="BJ38" s="3"/>
       <c r="BK38" s="3"/>
     </row>
-    <row r="39" spans="1:63">
+    <row r="39" spans="1:63" ht="16.5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6583,7 +6583,7 @@
     <col min="1" max="63" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:63" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6715,7 +6715,7 @@
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6780,7 +6780,7 @@
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" ht="16.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6845,7 +6845,7 @@
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" ht="16.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6910,7 +6910,7 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:63" ht="16.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6975,7 +6975,7 @@
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" ht="16.5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7040,7 +7040,7 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:63" ht="16.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7105,7 +7105,7 @@
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" ht="16.5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7170,7 +7170,7 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="3"/>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7235,7 +7235,7 @@
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" ht="16.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7300,7 +7300,7 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" ht="16.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7365,7 +7365,7 @@
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" ht="16.5">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7430,7 +7430,7 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:63" ht="16.5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7495,7 +7495,7 @@
       <c r="BJ14" s="3"/>
       <c r="BK14" s="3"/>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:63" ht="16.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7560,7 +7560,7 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:63" ht="16.5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7625,7 +7625,7 @@
       <c r="BJ16" s="3"/>
       <c r="BK16" s="3"/>
     </row>
-    <row r="17" spans="1:63">
+    <row r="17" spans="1:63" ht="16.5">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7690,7 +7690,7 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="3"/>
     </row>
-    <row r="18" spans="1:63">
+    <row r="18" spans="1:63" ht="16.5">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7755,7 +7755,7 @@
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
     </row>
-    <row r="19" spans="1:63">
+    <row r="19" spans="1:63" ht="16.5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7820,7 +7820,7 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="3"/>
     </row>
-    <row r="20" spans="1:63">
+    <row r="20" spans="1:63" ht="16.5">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7885,7 +7885,7 @@
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
     </row>
-    <row r="21" spans="1:63">
+    <row r="21" spans="1:63" ht="16.5">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7950,7 +7950,7 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
     </row>
-    <row r="22" spans="1:63">
+    <row r="22" spans="1:63" ht="16.5">
       <c r="A22" s="29" t="s">
         <v>50</v>
       </c>
@@ -8017,7 +8017,7 @@
       <c r="BJ22" s="8"/>
       <c r="BK22" s="8"/>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:63" ht="16.5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8082,7 +8082,7 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="3"/>
     </row>
-    <row r="24" spans="1:63" outlineLevel="1">
+    <row r="24" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
         <v>12</v>
@@ -8161,7 +8161,7 @@
       <c r="BJ24" s="3"/>
       <c r="BK24" s="3"/>
     </row>
-    <row r="25" spans="1:63" outlineLevel="1">
+    <row r="25" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A25" s="9"/>
       <c r="B25" s="18">
         <f t="shared" ref="B25:B30" si="0">ROW()-24</f>
@@ -8178,7 +8178,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="77" t="s">
+      <c r="L25" s="78" t="s">
         <v>42</v>
       </c>
       <c r="M25" s="72"/>
@@ -8186,7 +8186,7 @@
       <c r="O25" s="72"/>
       <c r="P25" s="72"/>
       <c r="Q25" s="73"/>
-      <c r="R25" s="77"/>
+      <c r="R25" s="78"/>
       <c r="S25" s="72"/>
       <c r="T25" s="72"/>
       <c r="U25" s="72"/>
@@ -8198,21 +8198,21 @@
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
       <c r="AC25" s="23"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="80"/>
-      <c r="AG25" s="78" t="s">
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="80"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="79"/>
-      <c r="AM25" s="79"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="79"/>
-      <c r="AP25" s="80"/>
+      <c r="AH25" s="80"/>
+      <c r="AI25" s="80"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="80"/>
+      <c r="AL25" s="80"/>
+      <c r="AM25" s="80"/>
+      <c r="AN25" s="80"/>
+      <c r="AO25" s="80"/>
+      <c r="AP25" s="81"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
@@ -8235,7 +8235,7 @@
       <c r="BJ25" s="3"/>
       <c r="BK25" s="3"/>
     </row>
-    <row r="26" spans="1:63" outlineLevel="1">
+    <row r="26" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A26" s="9"/>
       <c r="B26" s="18">
         <f t="shared" si="0"/>
@@ -8252,7 +8252,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="77" t="s">
+      <c r="L26" s="78" t="s">
         <v>42</v>
       </c>
       <c r="M26" s="72"/>
@@ -8260,7 +8260,7 @@
       <c r="O26" s="72"/>
       <c r="P26" s="72"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="77"/>
+      <c r="R26" s="78"/>
       <c r="S26" s="72"/>
       <c r="T26" s="72"/>
       <c r="U26" s="72"/>
@@ -8272,21 +8272,21 @@
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
       <c r="AC26" s="23"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="80"/>
-      <c r="AG26" s="81" t="s">
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="79"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
-      <c r="AP26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="80"/>
+      <c r="AN26" s="80"/>
+      <c r="AO26" s="80"/>
+      <c r="AP26" s="81"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
@@ -8309,7 +8309,7 @@
       <c r="BJ26" s="3"/>
       <c r="BK26" s="3"/>
     </row>
-    <row r="27" spans="1:63" outlineLevel="1">
+    <row r="27" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A27" s="9"/>
       <c r="B27" s="18">
         <f t="shared" si="0"/>
@@ -8326,7 +8326,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="77" t="s">
+      <c r="L27" s="78" t="s">
         <v>42</v>
       </c>
       <c r="M27" s="72"/>
@@ -8334,7 +8334,7 @@
       <c r="O27" s="72"/>
       <c r="P27" s="72"/>
       <c r="Q27" s="73"/>
-      <c r="R27" s="77"/>
+      <c r="R27" s="78"/>
       <c r="S27" s="72"/>
       <c r="T27" s="72"/>
       <c r="U27" s="72"/>
@@ -8346,21 +8346,21 @@
       <c r="AA27" s="22"/>
       <c r="AB27" s="22"/>
       <c r="AC27" s="23"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="80"/>
-      <c r="AG27" s="81" t="s">
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-      <c r="AP27" s="80"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="80"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="80"/>
+      <c r="AN27" s="80"/>
+      <c r="AO27" s="80"/>
+      <c r="AP27" s="81"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
@@ -8383,7 +8383,7 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
     </row>
-    <row r="28" spans="1:63" outlineLevel="1">
+    <row r="28" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A28" s="9"/>
       <c r="B28" s="18">
         <f t="shared" si="0"/>
@@ -8400,7 +8400,7 @@
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="77" t="s">
+      <c r="L28" s="78" t="s">
         <v>42</v>
       </c>
       <c r="M28" s="72"/>
@@ -8408,7 +8408,7 @@
       <c r="O28" s="72"/>
       <c r="P28" s="72"/>
       <c r="Q28" s="73"/>
-      <c r="R28" s="77"/>
+      <c r="R28" s="78"/>
       <c r="S28" s="72"/>
       <c r="T28" s="72"/>
       <c r="U28" s="72"/>
@@ -8420,21 +8420,21 @@
       <c r="AA28" s="22"/>
       <c r="AB28" s="22"/>
       <c r="AC28" s="23"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="81" t="s">
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="80"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="80"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="80"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="80"/>
+      <c r="AL28" s="80"/>
+      <c r="AM28" s="80"/>
+      <c r="AN28" s="80"/>
+      <c r="AO28" s="80"/>
+      <c r="AP28" s="81"/>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
@@ -8457,7 +8457,7 @@
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
     </row>
-    <row r="29" spans="1:63" outlineLevel="1">
+    <row r="29" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A29" s="9"/>
       <c r="B29" s="18">
         <f t="shared" si="0"/>
@@ -8474,7 +8474,7 @@
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="77" t="s">
+      <c r="L29" s="78" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="72"/>
@@ -8482,7 +8482,7 @@
       <c r="O29" s="72"/>
       <c r="P29" s="72"/>
       <c r="Q29" s="73"/>
-      <c r="R29" s="77"/>
+      <c r="R29" s="78"/>
       <c r="S29" s="72"/>
       <c r="T29" s="72"/>
       <c r="U29" s="72"/>
@@ -8494,19 +8494,19 @@
       <c r="AA29" s="22"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="23"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="80"/>
-      <c r="AG29" s="81"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="79"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="79"/>
-      <c r="AP29" s="80"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="80"/>
+      <c r="AF29" s="81"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="80"/>
+      <c r="AI29" s="80"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="80"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="80"/>
+      <c r="AN29" s="80"/>
+      <c r="AO29" s="80"/>
+      <c r="AP29" s="81"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
@@ -8529,7 +8529,7 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="3"/>
     </row>
-    <row r="30" spans="1:63" outlineLevel="1">
+    <row r="30" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A30" s="9"/>
       <c r="B30" s="18">
         <f t="shared" si="0"/>
@@ -8546,7 +8546,7 @@
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="77" t="s">
+      <c r="L30" s="78" t="s">
         <v>24</v>
       </c>
       <c r="M30" s="72"/>
@@ -8554,7 +8554,7 @@
       <c r="O30" s="72"/>
       <c r="P30" s="72"/>
       <c r="Q30" s="73"/>
-      <c r="R30" s="77"/>
+      <c r="R30" s="78"/>
       <c r="S30" s="72"/>
       <c r="T30" s="72"/>
       <c r="U30" s="72"/>
@@ -8566,19 +8566,19 @@
       <c r="AA30" s="22"/>
       <c r="AB30" s="22"/>
       <c r="AC30" s="23"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="80"/>
-      <c r="AG30" s="81"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
-      <c r="AP30" s="80"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="80"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="80"/>
+      <c r="AL30" s="80"/>
+      <c r="AM30" s="80"/>
+      <c r="AN30" s="80"/>
+      <c r="AO30" s="80"/>
+      <c r="AP30" s="81"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="3"/>
@@ -8601,7 +8601,7 @@
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
     </row>
-    <row r="31" spans="1:63">
+    <row r="31" spans="1:63" ht="16.5">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8666,7 +8666,7 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
     </row>
-    <row r="32" spans="1:63">
+    <row r="32" spans="1:63" ht="16.5">
       <c r="A32" s="29" t="s">
         <v>71</v>
       </c>
@@ -8733,7 +8733,7 @@
       <c r="BJ32" s="8"/>
       <c r="BK32" s="8"/>
     </row>
-    <row r="33" spans="1:63">
+    <row r="33" spans="1:63" ht="16.5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8798,7 +8798,7 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
     </row>
-    <row r="34" spans="1:63" outlineLevel="1">
+    <row r="34" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A34" s="24"/>
       <c r="B34" s="10" t="s">
         <v>12</v>
@@ -8875,7 +8875,7 @@
       <c r="BJ34" s="3"/>
       <c r="BK34" s="3"/>
     </row>
-    <row r="35" spans="1:63" outlineLevel="1">
+    <row r="35" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A35" s="24"/>
       <c r="B35" s="18">
         <f t="shared" ref="B35:B44" si="1">ROW()-34</f>
@@ -8968,16 +8968,16 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="33"/>
-      <c r="J36" s="78" t="s">
+      <c r="J36" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="81"/>
       <c r="R36" s="19" t="s">
         <v>34</v>
       </c>
@@ -9006,24 +9006,24 @@
       <c r="AM36" s="20"/>
       <c r="AN36" s="20"/>
       <c r="AO36" s="21"/>
-      <c r="AP36" s="82" t="s">
+      <c r="AP36" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="AQ36" s="79"/>
-      <c r="AR36" s="79"/>
-      <c r="AS36" s="79"/>
-      <c r="AT36" s="79"/>
-      <c r="AU36" s="79"/>
-      <c r="AV36" s="79"/>
-      <c r="AW36" s="79"/>
-      <c r="AX36" s="79"/>
-      <c r="AY36" s="79"/>
-      <c r="AZ36" s="79"/>
-      <c r="BA36" s="79"/>
-      <c r="BB36" s="79"/>
-      <c r="BC36" s="79"/>
-      <c r="BD36" s="79"/>
-      <c r="BE36" s="80"/>
+      <c r="AQ36" s="80"/>
+      <c r="AR36" s="80"/>
+      <c r="AS36" s="80"/>
+      <c r="AT36" s="80"/>
+      <c r="AU36" s="80"/>
+      <c r="AV36" s="80"/>
+      <c r="AW36" s="80"/>
+      <c r="AX36" s="80"/>
+      <c r="AY36" s="80"/>
+      <c r="AZ36" s="80"/>
+      <c r="BA36" s="80"/>
+      <c r="BB36" s="80"/>
+      <c r="BC36" s="80"/>
+      <c r="BD36" s="80"/>
+      <c r="BE36" s="81"/>
       <c r="BF36" s="3"/>
       <c r="BG36" s="3"/>
       <c r="BH36" s="3"/>
@@ -9031,7 +9031,7 @@
       <c r="BJ36" s="3"/>
       <c r="BK36" s="3"/>
     </row>
-    <row r="37" spans="1:63" outlineLevel="1">
+    <row r="37" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A37" s="24"/>
       <c r="B37" s="18">
         <f t="shared" si="1"/>
@@ -9107,7 +9107,7 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="3"/>
     </row>
-    <row r="38" spans="1:63" outlineLevel="1">
+    <row r="38" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A38" s="24"/>
       <c r="B38" s="18">
         <f t="shared" si="1"/>
@@ -9177,7 +9177,7 @@
       <c r="BJ38" s="3"/>
       <c r="BK38" s="3"/>
     </row>
-    <row r="39" spans="1:63" outlineLevel="1">
+    <row r="39" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A39" s="24"/>
       <c r="B39" s="18">
         <f t="shared" si="1"/>
@@ -9253,7 +9253,7 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="3"/>
     </row>
-    <row r="40" spans="1:63" outlineLevel="1">
+    <row r="40" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A40" s="24"/>
       <c r="B40" s="18">
         <f t="shared" si="1"/>
@@ -9329,7 +9329,7 @@
       <c r="BJ40" s="3"/>
       <c r="BK40" s="3"/>
     </row>
-    <row r="41" spans="1:63" outlineLevel="1">
+    <row r="41" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A41" s="24"/>
       <c r="B41" s="18">
         <f t="shared" si="1"/>
@@ -9405,7 +9405,7 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="3"/>
     </row>
-    <row r="42" spans="1:63" outlineLevel="1">
+    <row r="42" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A42" s="24"/>
       <c r="B42" s="18">
         <f t="shared" si="1"/>
@@ -9486,16 +9486,16 @@
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="21"/>
-      <c r="J43" s="78" t="s">
+      <c r="J43" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="81"/>
       <c r="R43" s="28" t="s">
         <v>34</v>
       </c>
@@ -9549,7 +9549,7 @@
       <c r="BJ43" s="3"/>
       <c r="BK43" s="3"/>
     </row>
-    <row r="44" spans="1:63" outlineLevel="1">
+    <row r="44" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A44" s="24"/>
       <c r="B44" s="18">
         <f t="shared" si="1"/>
@@ -9627,7 +9627,7 @@
       <c r="BJ44" s="3"/>
       <c r="BK44" s="3"/>
     </row>
-    <row r="45" spans="1:63">
+    <row r="45" spans="1:63" ht="16.5">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -9692,7 +9692,7 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="3"/>
     </row>
-    <row r="46" spans="1:63">
+    <row r="46" spans="1:63" ht="16.5">
       <c r="A46" s="29" t="s">
         <v>120</v>
       </c>
@@ -9759,7 +9759,7 @@
       <c r="BJ46" s="8"/>
       <c r="BK46" s="8"/>
     </row>
-    <row r="47" spans="1:63">
+    <row r="47" spans="1:63" ht="16.5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -10293,7 +10293,7 @@
       <c r="BJ54" s="66"/>
       <c r="BK54" s="66"/>
     </row>
-    <row r="55" spans="1:63">
+    <row r="55" spans="1:63" ht="16.5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -10358,7 +10358,7 @@
       <c r="BJ55" s="3"/>
       <c r="BK55" s="3"/>
     </row>
-    <row r="56" spans="1:63">
+    <row r="56" spans="1:63" ht="16.5">
       <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
@@ -10425,7 +10425,7 @@
       <c r="BJ56" s="2"/>
       <c r="BK56" s="2"/>
     </row>
-    <row r="57" spans="1:63">
+    <row r="57" spans="1:63" ht="16.5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -10490,7 +10490,7 @@
       <c r="BJ57" s="3"/>
       <c r="BK57" s="3"/>
     </row>
-    <row r="58" spans="1:63" outlineLevel="1">
+    <row r="58" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A58" s="3"/>
       <c r="B58" s="34" t="s">
         <v>129</v>
@@ -10557,7 +10557,7 @@
       <c r="BJ58" s="3"/>
       <c r="BK58" s="3"/>
     </row>
-    <row r="59" spans="1:63" outlineLevel="1">
+    <row r="59" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4" t="s">
@@ -10624,7 +10624,7 @@
       <c r="BJ59" s="3"/>
       <c r="BK59" s="3"/>
     </row>
-    <row r="60" spans="1:63" outlineLevel="1">
+    <row r="60" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -10691,7 +10691,7 @@
       <c r="BJ60" s="3"/>
       <c r="BK60" s="3"/>
     </row>
-    <row r="61" spans="1:63" outlineLevel="1">
+    <row r="61" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -10758,7 +10758,7 @@
       <c r="BJ61" s="3"/>
       <c r="BK61" s="3"/>
     </row>
-    <row r="62" spans="1:63" outlineLevel="1">
+    <row r="62" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -10825,7 +10825,7 @@
       <c r="BJ62" s="3"/>
       <c r="BK62" s="3"/>
     </row>
-    <row r="63" spans="1:63" outlineLevel="1">
+    <row r="63" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -10892,7 +10892,7 @@
       <c r="BJ63" s="3"/>
       <c r="BK63" s="3"/>
     </row>
-    <row r="64" spans="1:63" outlineLevel="1">
+    <row r="64" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -10959,7 +10959,7 @@
       <c r="BJ64" s="3"/>
       <c r="BK64" s="3"/>
     </row>
-    <row r="65" spans="1:63" outlineLevel="1">
+    <row r="65" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11026,7 +11026,7 @@
       <c r="BJ65" s="3"/>
       <c r="BK65" s="3"/>
     </row>
-    <row r="66" spans="1:63" outlineLevel="1">
+    <row r="66" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4" t="s">
@@ -11093,7 +11093,7 @@
       <c r="BJ66" s="3"/>
       <c r="BK66" s="3"/>
     </row>
-    <row r="67" spans="1:63">
+    <row r="67" spans="1:63" ht="16.5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -11160,6 +11160,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="AP36:BE36"/>
+    <mergeCell ref="AG29:AP29"/>
+    <mergeCell ref="AG28:AP28"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="AG30:AP30"/>
     <mergeCell ref="R25:W25"/>
     <mergeCell ref="AD27:AF27"/>
     <mergeCell ref="AG26:AP26"/>
@@ -11168,25 +11187,6 @@
     <mergeCell ref="AG27:AP27"/>
     <mergeCell ref="AD26:AF26"/>
     <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="AG30:AP30"/>
-    <mergeCell ref="AP36:BE36"/>
-    <mergeCell ref="AG29:AP29"/>
-    <mergeCell ref="AG28:AP28"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="L28:Q28"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12119,7 +12119,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="78" t="s">
         <v>42</v>
       </c>
       <c r="M14" s="72"/>
@@ -12127,7 +12127,7 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="73"/>
-      <c r="R14" s="77"/>
+      <c r="R14" s="78"/>
       <c r="S14" s="72"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
@@ -12139,19 +12139,19 @@
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
       <c r="AC14" s="23"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="79"/>
-      <c r="AM14" s="79"/>
-      <c r="AN14" s="79"/>
-      <c r="AO14" s="79"/>
-      <c r="AP14" s="80"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="80"/>
+      <c r="AP14" s="81"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
       <c r="AS14" s="3"/>
@@ -13099,7 +13099,7 @@
       <c r="BE1" s="45"/>
       <c r="BF1" s="45"/>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:58" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -13159,7 +13159,7 @@
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:58" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -13281,7 +13281,7 @@
       <c r="BE4" s="45"/>
       <c r="BF4" s="45"/>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:58" ht="16.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -13341,7 +13341,7 @@
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
     </row>
-    <row r="6" spans="1:58" outlineLevel="1">
+    <row r="6" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>73</v>
@@ -13403,10 +13403,10 @@
       <c r="BE6" s="3"/>
       <c r="BF6" s="3"/>
     </row>
-    <row r="7" spans="1:58" outlineLevel="1">
+    <row r="7" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="87" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="72"/>
@@ -13414,7 +13414,7 @@
       <c r="F7" s="72"/>
       <c r="G7" s="72"/>
       <c r="H7" s="73"/>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="88" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="72"/>
@@ -13467,10 +13467,10 @@
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
     </row>
-    <row r="8" spans="1:58" outlineLevel="1">
+    <row r="8" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="87" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="72"/>
@@ -13478,7 +13478,7 @@
       <c r="F8" s="72"/>
       <c r="G8" s="72"/>
       <c r="H8" s="73"/>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="88" t="s">
         <v>80</v>
       </c>
       <c r="J8" s="72"/>
@@ -13531,10 +13531,10 @@
       <c r="BE8" s="3"/>
       <c r="BF8" s="3"/>
     </row>
-    <row r="9" spans="1:58" outlineLevel="1">
+    <row r="9" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="87" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="72"/>
@@ -13542,7 +13542,7 @@
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
       <c r="H9" s="73"/>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="88" t="s">
         <v>91</v>
       </c>
       <c r="J9" s="72"/>
@@ -13595,10 +13595,10 @@
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
     </row>
-    <row r="10" spans="1:58" outlineLevel="1">
+    <row r="10" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="87" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="72"/>
@@ -13606,7 +13606,7 @@
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
       <c r="H10" s="73"/>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="88" t="s">
         <v>91</v>
       </c>
       <c r="J10" s="72"/>
@@ -13659,10 +13659,10 @@
       <c r="BE10" s="3"/>
       <c r="BF10" s="3"/>
     </row>
-    <row r="11" spans="1:58" outlineLevel="1">
+    <row r="11" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="87" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="72"/>
@@ -13670,7 +13670,7 @@
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="88" t="s">
         <v>91</v>
       </c>
       <c r="J11" s="72"/>
@@ -13723,7 +13723,7 @@
       <c r="BE11" s="3"/>
       <c r="BF11" s="3"/>
     </row>
-    <row r="12" spans="1:58" outlineLevel="1">
+    <row r="12" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -13783,7 +13783,7 @@
       <c r="BE12" s="3"/>
       <c r="BF12" s="3"/>
     </row>
-    <row r="13" spans="1:58" outlineLevel="1">
+    <row r="13" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A13" s="3"/>
       <c r="B13" s="34" t="s">
         <v>102</v>
@@ -13845,7 +13845,7 @@
       <c r="BE13" s="3"/>
       <c r="BF13" s="3"/>
     </row>
-    <row r="14" spans="1:58" outlineLevel="1">
+    <row r="14" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="53" t="s">
@@ -13907,11 +13907,11 @@
       <c r="BE14" s="3"/>
       <c r="BF14" s="3"/>
     </row>
-    <row r="15" spans="1:58" outlineLevel="1">
+    <row r="15" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="59"/>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="87" t="s">
         <v>108</v>
       </c>
       <c r="E15" s="72"/>
@@ -13919,33 +13919,33 @@
       <c r="G15" s="72"/>
       <c r="H15" s="72"/>
       <c r="I15" s="73"/>
-      <c r="J15" s="85" t="s">
+      <c r="J15" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="87"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="91"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
@@ -13971,11 +13971,11 @@
       <c r="BE15" s="3"/>
       <c r="BF15" s="3"/>
     </row>
-    <row r="16" spans="1:58" outlineLevel="1">
+    <row r="16" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="59"/>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="72"/>
@@ -13983,7 +13983,7 @@
       <c r="G16" s="72"/>
       <c r="H16" s="72"/>
       <c r="I16" s="73"/>
-      <c r="J16" s="77" t="s">
+      <c r="J16" s="78" t="s">
         <v>113</v>
       </c>
       <c r="K16" s="72"/>
@@ -14035,11 +14035,11 @@
       <c r="BE16" s="3"/>
       <c r="BF16" s="3"/>
     </row>
-    <row r="17" spans="1:58" outlineLevel="1">
+    <row r="17" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="59"/>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="78" t="s">
         <v>114</v>
       </c>
       <c r="E17" s="72"/>
@@ -14047,7 +14047,7 @@
       <c r="G17" s="72"/>
       <c r="H17" s="72"/>
       <c r="I17" s="73"/>
-      <c r="J17" s="77" t="s">
+      <c r="J17" s="78" t="s">
         <v>77</v>
       </c>
       <c r="K17" s="72"/>
@@ -14099,11 +14099,11 @@
       <c r="BE17" s="3"/>
       <c r="BF17" s="3"/>
     </row>
-    <row r="18" spans="1:58" outlineLevel="1">
+    <row r="18" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="65"/>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="78" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="72"/>
@@ -14111,7 +14111,7 @@
       <c r="G18" s="72"/>
       <c r="H18" s="72"/>
       <c r="I18" s="73"/>
-      <c r="J18" s="77" t="s">
+      <c r="J18" s="78" t="s">
         <v>77</v>
       </c>
       <c r="K18" s="72"/>
@@ -14163,7 +14163,7 @@
       <c r="BE18" s="3"/>
       <c r="BF18" s="3"/>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" spans="1:58" ht="16.5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -14225,17 +14225,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="J17:AH17"/>
-    <mergeCell ref="J18:AH18"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="I7:AH7"/>
-    <mergeCell ref="I8:AH8"/>
-    <mergeCell ref="I9:AH9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C7:H7"/>
     <mergeCell ref="I10:AH10"/>
     <mergeCell ref="I11:AH11"/>
     <mergeCell ref="C10:H10"/>
@@ -14243,6 +14232,17 @@
     <mergeCell ref="J16:AH16"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="J15:AH15"/>
+    <mergeCell ref="I7:AH7"/>
+    <mergeCell ref="I8:AH8"/>
+    <mergeCell ref="I9:AH9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="J17:AH17"/>
+    <mergeCell ref="J18:AH18"/>
+    <mergeCell ref="D18:I18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
